--- a/All_Channel_Inputs.xlsx
+++ b/All_Channel_Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\2023\Nestle CPW\Python Workflows\Blueprint DB Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C55D7D0-D1C7-4C22-BB9A-D805AFAAB0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2191C0A-E5B8-403F-9930-C4329D1E70A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$188</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1004,7 +1017,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,6 +1036,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1051,16 +1077,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1365,15 +1397,21 @@
   <dimension ref="A1:Q188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1479,7 +1517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1532,7 +1570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1585,7 +1623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1638,7 +1676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1691,7 +1729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1744,7 +1782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1797,7 +1835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1850,7 +1888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1903,7 +1941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1956,7 +1994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2009,7 +2047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2062,7 +2100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2115,7 +2153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2168,7 +2206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2221,7 +2259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2274,7 +2312,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2327,7 +2365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2380,7 +2418,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2430,7 +2468,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2480,7 +2518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2530,7 +2568,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2580,7 +2618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2630,7 +2668,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2680,7 +2718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2730,7 +2768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2780,7 +2818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2830,7 +2868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2880,7 +2918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2930,7 +2968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2980,7 +3018,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3030,7 +3068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3080,7 +3118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3130,7 +3168,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3180,7 +3218,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3230,7 +3268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3280,7 +3318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3330,7 +3368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3380,7 +3418,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3430,7 +3468,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3480,7 +3518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3530,7 +3568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3580,7 +3618,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3630,7 +3668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3680,7 +3718,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3730,7 +3768,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3780,7 +3818,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3830,7 +3868,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3880,7 +3918,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3930,7 +3968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3980,7 +4018,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4030,7 +4068,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4080,7 +4118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4130,7 +4168,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4180,7 +4218,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4230,7 +4268,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4280,7 +4318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4330,7 +4368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4380,7 +4418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4430,7 +4468,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4480,7 +4518,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4530,7 +4568,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4580,7 +4618,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4630,7 +4668,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4680,7 +4718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4730,7 +4768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4780,7 +4818,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4830,7 +4868,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4880,7 +4918,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4930,7 +4968,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4980,7 +5018,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5030,7 +5068,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5080,7 +5118,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5130,7 +5168,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5180,7 +5218,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5230,7 +5268,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5280,7 +5318,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5330,7 +5368,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5380,7 +5418,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5430,7 +5468,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5480,7 +5518,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5530,7 +5568,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5580,7 +5618,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5630,7 +5668,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5680,7 +5718,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5730,7 +5768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5780,7 +5818,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5830,7 +5868,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5880,7 +5918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5930,7 +5968,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5980,7 +6018,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6030,7 +6068,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6080,7 +6118,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6130,7 +6168,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6180,7 +6218,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6230,7 +6268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6280,7 +6318,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6330,7 +6368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6380,7 +6418,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6430,7 +6468,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6480,7 +6518,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6530,7 +6568,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6580,7 +6618,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6630,7 +6668,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6680,7 +6718,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6730,7 +6768,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6780,7 +6818,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6830,7 +6868,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6880,7 +6918,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6930,7 +6968,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6980,7 +7018,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7030,7 +7068,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7080,7 +7118,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7130,7 +7168,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7180,7 +7218,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7230,7 +7268,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7280,7 +7318,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7330,7 +7368,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7380,7 +7418,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7430,7 +7468,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7480,7 +7518,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7530,7 +7568,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7580,7 +7618,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7630,7 +7668,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7683,7 +7721,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7736,7 +7774,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7789,7 +7827,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7842,7 +7880,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7895,7 +7933,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7948,7 +7986,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8001,7 +8039,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8054,7 +8092,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8107,7 +8145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8160,7 +8198,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8213,7 +8251,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8266,7 +8304,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8276,7 +8314,7 @@
       <c r="C137">
         <v>0</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E137">
@@ -8306,7 +8344,7 @@
       <c r="N137">
         <v>0.1</v>
       </c>
-      <c r="O137">
+      <c r="O137" s="2">
         <v>1.134512366193517E-4</v>
       </c>
       <c r="P137">
@@ -8316,7 +8354,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8326,7 +8364,7 @@
       <c r="C138">
         <v>0</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E138">
@@ -8356,7 +8394,7 @@
       <c r="N138">
         <v>0.15</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="2">
         <v>1.6097884150590932E-5</v>
       </c>
       <c r="P138">
@@ -8366,7 +8404,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8376,7 +8414,7 @@
       <c r="C139">
         <v>0</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E139">
@@ -8406,7 +8444,7 @@
       <c r="N139">
         <v>0.1</v>
       </c>
-      <c r="O139">
+      <c r="O139" s="2">
         <v>1.1345123661935169E-5</v>
       </c>
       <c r="P139">
@@ -8416,7 +8454,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8426,7 +8464,7 @@
       <c r="C140">
         <v>0</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E140">
@@ -8456,7 +8494,7 @@
       <c r="N140">
         <v>0.25</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="2">
         <v>8.7036602013743362E-6</v>
       </c>
       <c r="P140">
@@ -8466,7 +8504,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8476,7 +8514,7 @@
       <c r="C141">
         <v>0.2</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
         <v>3.3410914553704672E-5</v>
       </c>
       <c r="E141">
@@ -8506,7 +8544,7 @@
       <c r="N141">
         <v>0.32500000000000001</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="2">
         <v>5.8010389962708841E-6</v>
       </c>
       <c r="P141">
@@ -8516,7 +8554,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -8526,7 +8564,7 @@
       <c r="C142">
         <v>0.2</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
         <v>3.3410914553704661E-6</v>
       </c>
       <c r="E142">
@@ -8556,7 +8594,7 @@
       <c r="N142">
         <v>0.32500000000000001</v>
       </c>
-      <c r="O142">
+      <c r="O142" s="2">
         <v>5.8010389962708841E-6</v>
       </c>
       <c r="P142">
@@ -8566,7 +8604,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -8576,7 +8614,7 @@
       <c r="C143">
         <v>0</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E143">
@@ -8606,7 +8644,7 @@
       <c r="N143">
         <v>0.2</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="2">
         <v>2.2712324009117082E-5</v>
       </c>
       <c r="P143">
@@ -8616,7 +8654,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -8626,7 +8664,7 @@
       <c r="C144">
         <v>0</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
         <v>3.3000000000000003E-5</v>
       </c>
       <c r="E144">
@@ -8656,7 +8694,7 @@
       <c r="N144">
         <v>0.2</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="2">
         <v>2.2712324009117082E-5</v>
       </c>
       <c r="P144">
@@ -8666,7 +8704,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -8676,7 +8714,7 @@
       <c r="C145">
         <v>0</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
         <v>0</v>
       </c>
       <c r="E145">
@@ -8706,7 +8744,7 @@
       <c r="N145">
         <v>0.2</v>
       </c>
-      <c r="O145">
+      <c r="O145" s="2">
         <v>2.2712324009117079E-6</v>
       </c>
       <c r="P145">
@@ -8716,7 +8754,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -8726,7 +8764,7 @@
       <c r="C146">
         <v>0</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E146">
@@ -8756,7 +8794,7 @@
       <c r="N146">
         <v>0.2</v>
       </c>
-      <c r="O146">
+      <c r="O146" s="2">
         <v>2.2712324009117082E-5</v>
       </c>
       <c r="P146">
@@ -8766,7 +8804,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8776,7 +8814,7 @@
       <c r="C147">
         <v>0.2</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="3">
         <v>1.7369656495609849E-4</v>
       </c>
       <c r="E147">
@@ -8806,7 +8844,7 @@
       <c r="N147">
         <v>0.2</v>
       </c>
-      <c r="O147">
+      <c r="O147" s="2">
         <v>1.7585553384054311E-5</v>
       </c>
       <c r="P147">
@@ -8816,7 +8854,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8826,7 +8864,7 @@
       <c r="C148">
         <v>0.32</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="3">
         <v>1.3638237876943419E-4</v>
       </c>
       <c r="E148">
@@ -8856,7 +8894,7 @@
       <c r="N148">
         <v>0.2</v>
       </c>
-      <c r="O148">
+      <c r="O148" s="2">
         <v>1.536707852600559E-5</v>
       </c>
       <c r="P148">
@@ -8866,7 +8904,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8876,7 +8914,7 @@
       <c r="C149">
         <v>0.2</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="3">
         <v>1.736965649560985E-5</v>
       </c>
       <c r="E149">
@@ -8906,7 +8944,7 @@
       <c r="N149">
         <v>0.2</v>
       </c>
-      <c r="O149">
+      <c r="O149" s="2">
         <v>1.536707852600559E-5</v>
       </c>
       <c r="P149">
@@ -8916,7 +8954,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8926,7 +8964,7 @@
       <c r="C150">
         <v>0.3</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="3">
         <v>4.711584993847872E-5</v>
       </c>
       <c r="E150">
@@ -8956,7 +8994,7 @@
       <c r="N150">
         <v>0.21</v>
       </c>
-      <c r="O150">
+      <c r="O150" s="2">
         <v>9.6793183731286807E-6</v>
       </c>
       <c r="P150">
@@ -8966,7 +9004,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8976,7 +9014,7 @@
       <c r="C151">
         <v>0.2</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="3">
         <v>1.736965649560985E-5</v>
       </c>
       <c r="E151">
@@ -9006,7 +9044,7 @@
       <c r="N151">
         <v>0.2</v>
       </c>
-      <c r="O151">
+      <c r="O151" s="2">
         <v>1.536707852600559E-5</v>
       </c>
       <c r="P151">
@@ -9016,7 +9054,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9026,7 +9064,7 @@
       <c r="C152">
         <v>0.32</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="3">
         <v>1.3638237876943419E-4</v>
       </c>
       <c r="E152">
@@ -9056,7 +9094,7 @@
       <c r="N152">
         <v>0.2</v>
       </c>
-      <c r="O152">
+      <c r="O152" s="2">
         <v>1.536707852600559E-5</v>
       </c>
       <c r="P152">
@@ -9066,7 +9104,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9116,7 +9154,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9166,7 +9204,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9216,7 +9254,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9266,7 +9304,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9316,7 +9354,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9366,7 +9404,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9416,7 +9454,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9466,7 +9504,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9516,7 +9554,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9566,7 +9604,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9616,7 +9654,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9666,7 +9704,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -9716,7 +9754,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -9766,7 +9804,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -9816,7 +9854,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -9866,7 +9904,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -9916,7 +9954,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -9966,7 +10004,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10016,7 +10054,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10066,7 +10104,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10116,7 +10154,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10166,7 +10204,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10216,7 +10254,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10266,7 +10304,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10316,7 +10354,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10366,7 +10404,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10416,7 +10454,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10466,7 +10504,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10476,13 +10514,13 @@
       <c r="C181">
         <v>0</v>
       </c>
-      <c r="D181">
-        <v>0</v>
+      <c r="D181" s="5">
+        <v>7.5610733200911411E-4</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="4">
         <v>65292.245119723579</v>
       </c>
       <c r="G181">
@@ -10507,7 +10545,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10517,13 +10555,13 @@
       <c r="C182">
         <v>0.5</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="5">
         <v>7.5610733200911411E-4</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="4">
         <v>25416.39600809797</v>
       </c>
       <c r="G182">
@@ -10548,7 +10586,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10558,13 +10596,13 @@
       <c r="C183">
         <v>0</v>
       </c>
-      <c r="D183">
-        <v>0</v>
+      <c r="D183" s="5">
+        <v>7.5610733200911419E-5</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="4">
         <v>335153.3550000512</v>
       </c>
       <c r="G183">
@@ -10589,7 +10627,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10599,13 +10637,13 @@
       <c r="C184">
         <v>0.5</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="5">
         <v>7.5610733200911411E-4</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="4">
         <v>30758.162381892751</v>
       </c>
       <c r="G184">
@@ -10630,7 +10668,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10640,13 +10678,13 @@
       <c r="C185">
         <v>0.25</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="5">
         <v>5.4352542855263898E-6</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="4">
         <v>1451619.1255260811</v>
       </c>
       <c r="G185">
@@ -10671,7 +10709,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10681,13 +10719,13 @@
       <c r="C186">
         <v>0</v>
       </c>
-      <c r="D186">
-        <v>0</v>
+      <c r="D186" s="5">
+        <v>7.5610733200911411E-4</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="4">
         <v>17038.905130680901</v>
       </c>
       <c r="G186">
@@ -10712,7 +10750,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10722,13 +10760,13 @@
       <c r="C187">
         <v>0.5</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="5">
         <v>7.5610733200911411E-4</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="4">
         <v>41869.397170513737</v>
       </c>
       <c r="G187">
@@ -10753,7 +10791,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10763,13 +10801,13 @@
       <c r="C188">
         <v>0.5</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="5">
         <v>7.5610733200911419E-5</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="4">
         <v>157486.3440611246</v>
       </c>
       <c r="G188">
@@ -10796,9 +10834,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q188" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
+    <filterColumn colId="9">
       <filters>
-        <filter val="Saudi Arabia"/>
+        <filter val="KitKat"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/All_Channel_Inputs.xlsx
+++ b/All_Channel_Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\2023\Nestle CPW\Python Workflows\Blueprint DB Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2191C0A-E5B8-403F-9930-C4329D1E70A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080244AA-4F9F-4F03-916D-CE40650C99F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1089,7 +1089,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1393,25 +1393,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="K190" sqref="K190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1782,7 +1781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3218,7 +3217,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3268,7 +3267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4368,7 +4367,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4468,7 +4467,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4718,7 +4717,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4818,7 +4817,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5018,7 +5017,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5068,7 +5067,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5568,7 +5567,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5768,7 +5767,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5868,7 +5867,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5918,7 +5917,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5968,7 +5967,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6018,7 +6017,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6218,7 +6217,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6268,7 +6267,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6318,7 +6317,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6368,7 +6367,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6668,7 +6667,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6718,7 +6717,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7018,7 +7017,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7068,7 +7067,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7118,7 +7117,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7418,7 +7417,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7518,7 +7517,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7933,7 +7932,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7986,7 +7985,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8092,7 +8091,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8145,7 +8144,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8354,7 +8353,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8454,7 +8453,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -8754,7 +8753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8904,7 +8903,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8954,7 +8953,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9504,7 +9503,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9604,7 +9603,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -9854,7 +9853,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -9904,7 +9903,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -9954,7 +9953,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10254,7 +10253,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10304,7 +10303,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10354,7 +10353,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10541,11 +10540,20 @@
       <c r="L181">
         <v>1.1604548212938649E-3</v>
       </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
       <c r="Q181" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10582,11 +10590,20 @@
       <c r="L182">
         <v>0.54072400773841567</v>
       </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
       <c r="Q182" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10623,11 +10640,20 @@
       <c r="L183">
         <v>1.00818285693965E-2</v>
       </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
       <c r="Q183" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10664,11 +10690,20 @@
       <c r="L184">
         <v>0.55698737026565415</v>
       </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
       <c r="Q184" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10705,11 +10740,20 @@
       <c r="L185">
         <v>0.20875208025856121</v>
       </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
       <c r="Q185" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10746,11 +10790,20 @@
       <c r="L186">
         <v>3.49840256698588E-3</v>
       </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
       <c r="Q186" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10787,11 +10840,20 @@
       <c r="L187">
         <v>0.73696567510388022</v>
       </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
       <c r="Q187" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10828,18 +10890,21 @@
       <c r="L188">
         <v>0.20349046478957361</v>
       </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
       <c r="Q188" t="s">
         <v>324</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q188" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="KitKat"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q188" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/All_Channel_Inputs.xlsx
+++ b/All_Channel_Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\2023\Nestle CPW\Python Workflows\Blueprint DB Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080244AA-4F9F-4F03-916D-CE40650C99F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BD7501-5D3F-42EB-81E1-B96B5D7CF446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1017,11 +1017,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1081,15 +1080,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1395,22 +1397,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="K190" sqref="K190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1422,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1453,7 +1455,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1463,7 +1465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1473,8 +1475,8 @@
       <c r="C2">
         <v>1.419388591056614E-2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" s="6">
+        <v>6.7272943269448284E-5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1506,7 +1508,7 @@
       <c r="N2">
         <v>0.42076394237803932</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <v>1.6530323245688409E-4</v>
       </c>
       <c r="P2">
@@ -1516,7 +1518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1526,8 +1528,8 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" s="6">
+        <v>3.1947041172145159E-5</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1559,7 +1561,7 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3">
@@ -1569,7 +1571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1579,7 +1581,7 @@
       <c r="C4">
         <v>8.9160804912229774E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>3.5565538271594739E-5</v>
       </c>
       <c r="E4">
@@ -1612,7 +1614,7 @@
       <c r="N4">
         <v>0.29777664202616472</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>3.5354704773457571E-5</v>
       </c>
       <c r="P4">
@@ -1622,7 +1624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1632,8 +1634,8 @@
       <c r="C5">
         <v>1.6069049914320021E-2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" s="6">
+        <v>6.7272943269448284E-5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1665,7 +1667,7 @@
       <c r="N5">
         <v>0.41497484321946437</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>1.7246911911237639E-4</v>
       </c>
       <c r="P5">
@@ -1675,7 +1677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1685,8 +1687,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" s="6">
+        <v>3.1947041172145159E-5</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1718,7 +1720,7 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6">
@@ -1728,7 +1730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1738,7 +1740,7 @@
       <c r="C7">
         <v>0.27338121694902551</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>6.8871683376159058E-5</v>
       </c>
       <c r="E7">
@@ -1771,7 +1773,7 @@
       <c r="N7">
         <v>0.40847442013749019</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>5.1316170987964803E-5</v>
       </c>
       <c r="P7">
@@ -1781,7 +1783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1791,7 +1793,7 @@
       <c r="C8">
         <v>0.26703513254201788</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>6.7272943269448284E-5</v>
       </c>
       <c r="E8">
@@ -1824,7 +1826,7 @@
       <c r="N8">
         <v>0.40751451419502283</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>5.1094797282625217E-5</v>
       </c>
       <c r="P8">
@@ -1834,7 +1836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1844,7 +1846,7 @@
       <c r="C9">
         <v>0.280456166846003</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>7.0654043242154098E-5</v>
       </c>
       <c r="E9">
@@ -1877,7 +1879,7 @@
       <c r="N9">
         <v>0.41118226495825688</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>5.2896326265489319E-5</v>
       </c>
       <c r="P9">
@@ -1887,7 +1889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1897,7 +1899,7 @@
       <c r="C10">
         <v>0.26904464036315262</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>6.7779189411533851E-5</v>
       </c>
       <c r="E10">
@@ -1930,7 +1932,7 @@
       <c r="N10">
         <v>0.40868648964610382</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>5.1675995695139737E-5</v>
       </c>
       <c r="P10">
@@ -1940,7 +1942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1950,7 +1952,7 @@
       <c r="C11">
         <v>0.26473482541955279</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>6.6693437385414284E-5</v>
       </c>
       <c r="E11">
@@ -1983,7 +1985,7 @@
       <c r="N11">
         <v>0.41268575861388868</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>5.2099156574646813E-5</v>
       </c>
       <c r="P11">
@@ -1993,7 +1995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2003,7 +2005,7 @@
       <c r="C12">
         <v>8.8443074057475327E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>3.1947041172145159E-5</v>
       </c>
       <c r="E12">
@@ -2036,7 +2038,7 @@
       <c r="N12">
         <v>0.30936438653156201</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>3.5979047212687023E-5</v>
       </c>
       <c r="P12">
@@ -2046,7 +2048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2056,7 +2058,7 @@
       <c r="C13">
         <v>7.3644878916037521E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>3.9484439577364312E-5</v>
       </c>
       <c r="E13">
@@ -2089,7 +2091,7 @@
       <c r="N13">
         <v>0.28413193598556868</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>3.5184074767046071E-5</v>
       </c>
       <c r="P13">
@@ -2099,7 +2101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2109,8 +2111,8 @@
       <c r="C14">
         <v>1.3198080586479409E-2</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" s="6">
+        <v>6.7272943269448284E-5</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2142,7 +2144,7 @@
       <c r="N14">
         <v>0.48229187839813942</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>8.6065129761360535E-5</v>
       </c>
       <c r="P14">
@@ -2152,7 +2154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2162,7 +2164,7 @@
       <c r="C15">
         <v>0.42081015245325892</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>2.652882203043925E-5</v>
       </c>
       <c r="E15">
@@ -2195,7 +2197,7 @@
       <c r="N15">
         <v>0.94257565981811242</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>2.289495055378924E-5</v>
       </c>
       <c r="P15">
@@ -2205,7 +2207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2215,8 +2217,8 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D16" s="6">
+        <v>3.1947041172145159E-5</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2248,7 +2250,7 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>0</v>
       </c>
       <c r="P16">
@@ -2258,7 +2260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2268,8 +2270,8 @@
       <c r="C17">
         <v>1.6468056624571532E-2</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" s="6">
+        <v>6.7272943269448284E-5</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2301,7 +2303,7 @@
       <c r="N17">
         <v>0.44679758581961032</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>1.3150439015542181E-4</v>
       </c>
       <c r="P17">
@@ -2311,7 +2313,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2321,8 +2323,8 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" s="6">
+        <v>6.6693437385414284E-5</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2354,7 +2356,7 @@
       <c r="N18">
         <v>0.82660107520370063</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="6">
         <v>3.1400451852539188E-5</v>
       </c>
       <c r="P18">
@@ -2364,7 +2366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2374,8 +2376,8 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" s="6">
+        <v>6.6693437385414284E-5</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2407,7 +2409,7 @@
       <c r="N19">
         <v>0.7705063836300643</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="6">
         <v>3.0041987064693458E-5</v>
       </c>
       <c r="P19">
@@ -2417,7 +2419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2427,7 +2429,7 @@
       <c r="C20">
         <v>0.37572284344185453</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>6.8759944738420913E-5</v>
       </c>
       <c r="E20">
@@ -2457,7 +2459,7 @@
       <c r="N20">
         <v>0.40028662485760053</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="6">
         <v>5.5518414430307447E-5</v>
       </c>
       <c r="P20">
@@ -2467,7 +2469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2477,7 +2479,7 @@
       <c r="C21">
         <v>0.32256015232803947</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>5.9030795268441008E-5</v>
       </c>
       <c r="E21">
@@ -2507,7 +2509,7 @@
       <c r="N21">
         <v>0.4950024561123757</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>4.5722862245815458E-5</v>
       </c>
       <c r="P21">
@@ -2517,7 +2519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2527,7 +2529,7 @@
       <c r="C22">
         <v>9.0713388312470791E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>1.927785196914366E-5</v>
       </c>
       <c r="E22">
@@ -2557,7 +2559,7 @@
       <c r="N22">
         <v>0.7158388846503666</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="6">
         <v>2.7874692564735159E-5</v>
       </c>
       <c r="P22">
@@ -2567,7 +2569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2577,7 +2579,7 @@
       <c r="C23">
         <v>0.36400492157208442</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>6.6615481940168896E-5</v>
       </c>
       <c r="E23">
@@ -2607,7 +2609,7 @@
       <c r="N23">
         <v>0.39515965326309088</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="6">
         <v>5.5915158938636858E-5</v>
       </c>
       <c r="P23">
@@ -2617,7 +2619,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2627,7 +2629,7 @@
       <c r="C24">
         <v>0.1428052577678163</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>3.7422709230406949E-5</v>
       </c>
       <c r="E24">
@@ -2657,7 +2659,7 @@
       <c r="N24">
         <v>0.2138310182074829</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="6">
         <v>6.9012037443173463E-5</v>
       </c>
       <c r="P24">
@@ -2667,7 +2669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2677,7 +2679,7 @@
       <c r="C25">
         <v>0.37914339325255342</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>6.9385929610152759E-5</v>
       </c>
       <c r="E25">
@@ -2707,7 +2709,7 @@
       <c r="N25">
         <v>0.29494877290500532</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="6">
         <v>6.6334765345017456E-5</v>
       </c>
       <c r="P25">
@@ -2717,7 +2719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2727,7 +2729,7 @@
       <c r="C26">
         <v>0.3714209901892086</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>6.7972675087166648E-5</v>
       </c>
       <c r="E26">
@@ -2757,7 +2759,7 @@
       <c r="N26">
         <v>0.44522782776427933</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="6">
         <v>5.0888013480759238E-5</v>
       </c>
       <c r="P26">
@@ -2767,7 +2769,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2777,7 +2779,7 @@
       <c r="C27">
         <v>0.20127912310558849</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>3.6835506872447872E-5</v>
       </c>
       <c r="E27">
@@ -2807,7 +2809,7 @@
       <c r="N27">
         <v>0.74343064700527095</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="6">
         <v>1.9706006099533111E-5</v>
       </c>
       <c r="P27">
@@ -2817,7 +2819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2827,7 +2829,7 @@
       <c r="C28">
         <v>0.37282343081972019</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>6.822933166777144E-5</v>
       </c>
       <c r="E28">
@@ -2857,7 +2859,7 @@
       <c r="N28">
         <v>0.46556668046088368</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="6">
         <v>4.8818909633970529E-5</v>
       </c>
       <c r="P28">
@@ -2867,7 +2869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2877,7 +2879,7 @@
       <c r="C29">
         <v>9.8951008377122743E-2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>4.3990246732733552E-5</v>
       </c>
       <c r="E29">
@@ -2907,7 +2909,7 @@
       <c r="N29">
         <v>0.29223999145355312</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="6">
         <v>4.6100891933286339E-5</v>
       </c>
       <c r="P29">
@@ -2917,7 +2919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2927,7 +2929,7 @@
       <c r="C30">
         <v>0.81102153749306183</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>7.5576481856489628E-6</v>
       </c>
       <c r="E30">
@@ -2957,7 +2959,7 @@
       <c r="N30">
         <v>0.96259076356267859</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="6">
         <v>4.2650985041175831E-6</v>
       </c>
       <c r="P30">
@@ -2967,7 +2969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2977,7 +2979,7 @@
       <c r="C31">
         <v>0.35011114497979839</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>6.4072822297912154E-5</v>
       </c>
       <c r="E31">
@@ -3007,7 +3009,7 @@
       <c r="N31">
         <v>0.46774444771314588</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="6">
         <v>4.8368022182785002E-5</v>
       </c>
       <c r="P31">
@@ -3017,7 +3019,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3027,7 +3029,7 @@
       <c r="C32">
         <v>0.2060459138707042</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>3.7707863385526623E-5</v>
       </c>
       <c r="E32">
@@ -3057,7 +3059,7 @@
       <c r="N32">
         <v>0.86109592111535349</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="6">
         <v>7.9790540796802678E-6</v>
       </c>
       <c r="P32">
@@ -3067,7 +3069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3077,7 +3079,7 @@
       <c r="C33">
         <v>0.3249799963877994</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>5.9473643891379313E-5</v>
       </c>
       <c r="E33">
@@ -3107,7 +3109,7 @@
       <c r="N33">
         <v>0.51521396606465775</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="6">
         <v>4.3583919634467901E-5</v>
       </c>
       <c r="P33">
@@ -3117,7 +3119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3127,7 +3129,7 @@
       <c r="C34">
         <v>0.1756107058562684</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>4.6656781146875968E-4</v>
       </c>
       <c r="E34">
@@ -3157,7 +3159,7 @@
       <c r="N34">
         <v>0.84496580861501991</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="6">
         <v>6.9325041777984126E-5</v>
       </c>
       <c r="P34">
@@ -3167,7 +3169,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3177,7 +3179,7 @@
       <c r="C35">
         <v>0.15704263885375919</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>1.016271890524065E-4</v>
       </c>
       <c r="E35">
@@ -3207,7 +3209,7 @@
       <c r="N35">
         <v>0.25000000000000011</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="6">
         <v>7.6943130969906603E-5</v>
       </c>
       <c r="P35">
@@ -3217,7 +3219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3227,7 +3229,7 @@
       <c r="C36">
         <v>0.15738149725284459</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>1.018983074827648E-4</v>
       </c>
       <c r="E36">
@@ -3257,7 +3259,7 @@
       <c r="N36">
         <v>0.25</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="6">
         <v>7.7089595574592268E-5</v>
       </c>
       <c r="P36">
@@ -3267,7 +3269,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3277,7 +3279,7 @@
       <c r="C37">
         <v>0.15051426633420331</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>3.1842399067570729E-4</v>
       </c>
       <c r="E37">
@@ -3307,7 +3309,7 @@
       <c r="N37">
         <v>0.25</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="6">
         <v>2.762906335291901E-4</v>
       </c>
       <c r="P37">
@@ -3317,7 +3319,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3327,7 +3329,7 @@
       <c r="C38">
         <v>0.14732143400177411</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>3.2040172838753589E-4</v>
       </c>
       <c r="E38">
@@ -3357,7 +3359,7 @@
       <c r="N38">
         <v>0.84979648648752037</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="6">
         <v>6.9798434388455231E-5</v>
       </c>
       <c r="P38">
@@ -3367,7 +3369,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3377,7 +3379,7 @@
       <c r="C39">
         <v>0.53413495475807327</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>2.6177197268221639E-5</v>
       </c>
       <c r="E39">
@@ -3407,7 +3409,7 @@
       <c r="N39">
         <v>0.71112305655979047</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="6">
         <v>4.1107653446744879E-5</v>
       </c>
       <c r="P39">
@@ -3417,7 +3419,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3427,7 +3429,7 @@
       <c r="C40">
         <v>0.3472580542993372</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>2.4179925188983659E-5</v>
       </c>
       <c r="E40">
@@ -3457,7 +3459,7 @@
       <c r="N40">
         <v>0.76877892857515662</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="6">
         <v>6.1930073801314112E-5</v>
       </c>
       <c r="P40">
@@ -3467,7 +3469,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3477,7 +3479,7 @@
       <c r="C41">
         <v>4.7180307347076678E-2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="6">
         <v>1.8459505839523531E-4</v>
       </c>
       <c r="E41">
@@ -3507,7 +3509,7 @@
       <c r="N41">
         <v>0.19962786327131141</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="6">
         <v>4.6792721971229893E-5</v>
       </c>
       <c r="P41">
@@ -3517,7 +3519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3527,7 +3529,7 @@
       <c r="C42">
         <v>2.256747707376084E-2</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>3.7063641864448549E-4</v>
       </c>
       <c r="E42">
@@ -3557,7 +3559,7 @@
       <c r="N42">
         <v>0.25910241110160148</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="6">
         <v>4.4140576410373222E-5</v>
       </c>
       <c r="P42">
@@ -3567,7 +3569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3577,7 +3579,7 @@
       <c r="C43">
         <v>3.5131781653719933E-2</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>2.7773293854813682E-4</v>
       </c>
       <c r="E43">
@@ -3607,7 +3609,7 @@
       <c r="N43">
         <v>0.49114326694718152</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="6">
         <v>3.1068316673124241E-5</v>
       </c>
       <c r="P43">
@@ -3617,7 +3619,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3627,7 +3629,7 @@
       <c r="C44">
         <v>4.6570461829993061E-2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <v>1.920377254391016E-4</v>
       </c>
       <c r="E44">
@@ -3657,7 +3659,7 @@
       <c r="N44">
         <v>0.26540087420067771</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="6">
         <v>4.3539577790892623E-5</v>
       </c>
       <c r="P44">
@@ -3667,7 +3669,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3677,7 +3679,7 @@
       <c r="C45">
         <v>3.9644736579825438E-2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>2.1366805526741741E-4</v>
       </c>
       <c r="E45">
@@ -3707,7 +3709,7 @@
       <c r="N45">
         <v>0.14268585364977901</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="6">
         <v>4.9695907338127311E-4</v>
       </c>
       <c r="P45">
@@ -3717,7 +3719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3727,7 +3729,7 @@
       <c r="C46">
         <v>0.18418430625482241</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>3.7622975205620948E-5</v>
       </c>
       <c r="E46">
@@ -3757,7 +3759,7 @@
       <c r="N46">
         <v>0.5719751207699284</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="6">
         <v>6.3893375880627235E-5</v>
       </c>
       <c r="P46">
@@ -3767,7 +3769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3777,7 +3779,7 @@
       <c r="C47">
         <v>7.3995234872243382E-2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>1.1173907048210621E-5</v>
       </c>
       <c r="E47">
@@ -3807,7 +3809,7 @@
       <c r="N47">
         <v>0.13930673382426301</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="6">
         <v>4.9448252509415122E-6</v>
       </c>
       <c r="P47">
@@ -3817,7 +3819,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3827,7 +3829,7 @@
       <c r="C48">
         <v>0.35556579667887428</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>4.3968681783250766E-6</v>
       </c>
       <c r="E48">
@@ -3857,7 +3859,7 @@
       <c r="N48">
         <v>0.93196448959288891</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="6">
         <v>2.2169798019607412E-6</v>
       </c>
       <c r="P48">
@@ -3867,7 +3869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3877,7 +3879,7 @@
       <c r="C49">
         <v>6.8907444260147693E-2</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <v>4.5003174068391079E-5</v>
       </c>
       <c r="E49">
@@ -3907,7 +3909,7 @@
       <c r="N49">
         <v>0.60133277934339924</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="6">
         <v>2.4698587826340229E-5</v>
       </c>
       <c r="P49">
@@ -3917,7 +3919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3927,7 +3929,7 @@
       <c r="C50">
         <v>5.9503366814904937E-2</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="6">
         <v>9.7194150184252965E-5</v>
       </c>
       <c r="E50">
@@ -3957,7 +3959,7 @@
       <c r="N50">
         <v>0.75323420403428931</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="6">
         <v>4.2989483742035921E-5</v>
       </c>
       <c r="P50">
@@ -3967,7 +3969,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3977,7 +3979,7 @@
       <c r="C51">
         <v>0.01</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="6">
         <v>1.0465997253187321E-5</v>
       </c>
       <c r="E51">
@@ -4007,7 +4009,7 @@
       <c r="N51">
         <v>0.6</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P51">
@@ -4017,7 +4019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4027,7 +4029,7 @@
       <c r="C52">
         <v>0.01</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="6">
         <v>1.0465997253187321E-5</v>
       </c>
       <c r="E52">
@@ -4057,7 +4059,7 @@
       <c r="N52">
         <v>0.6</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P52">
@@ -4067,7 +4069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4077,7 +4079,7 @@
       <c r="C53">
         <v>0.01</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="6">
         <v>5.5306503663135425E-4</v>
       </c>
       <c r="E53">
@@ -4107,7 +4109,7 @@
       <c r="N53">
         <v>0.6</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P53">
@@ -4117,7 +4119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4127,7 +4129,7 @@
       <c r="C54">
         <v>0.01</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="6">
         <v>7.8892942712928979E-4</v>
       </c>
       <c r="E54">
@@ -4157,7 +4159,7 @@
       <c r="N54">
         <v>0</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="6">
         <v>0</v>
       </c>
       <c r="P54">
@@ -4167,7 +4169,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4177,7 +4179,7 @@
       <c r="C55">
         <v>0.4</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="6">
         <v>2.7459903083980321E-5</v>
       </c>
       <c r="E55">
@@ -4207,7 +4209,7 @@
       <c r="N55">
         <v>0.75</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="6">
         <v>1.710709220918041E-5</v>
       </c>
       <c r="P55">
@@ -4217,7 +4219,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4227,7 +4229,7 @@
       <c r="C56">
         <v>0.4</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="6">
         <v>2.7459903083980318E-6</v>
       </c>
       <c r="E56">
@@ -4257,7 +4259,7 @@
       <c r="N56">
         <v>0.75</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="6">
         <v>1.710709220918041E-6</v>
       </c>
       <c r="P56">
@@ -4267,7 +4269,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4277,7 +4279,7 @@
       <c r="C57">
         <v>0.01</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="6">
         <v>1.0465997253187321E-5</v>
       </c>
       <c r="E57">
@@ -4307,7 +4309,7 @@
       <c r="N57">
         <v>0.6</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P57">
@@ -4317,7 +4319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4327,7 +4329,7 @@
       <c r="C58">
         <v>0.01</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="6">
         <v>1.0465997253187321E-5</v>
       </c>
       <c r="E58">
@@ -4357,7 +4359,7 @@
       <c r="N58">
         <v>0.6</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P58">
@@ -4367,7 +4369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4377,7 +4379,7 @@
       <c r="C59">
         <v>0.01</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="6">
         <v>1.046599725318732E-4</v>
       </c>
       <c r="E59">
@@ -4407,7 +4409,7 @@
       <c r="N59">
         <v>0.6</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P59">
@@ -4417,7 +4419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4427,7 +4429,7 @@
       <c r="C60">
         <v>0.01</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="6">
         <v>1.0465997253187321E-5</v>
       </c>
       <c r="E60">
@@ -4457,7 +4459,7 @@
       <c r="N60">
         <v>0.6</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P60">
@@ -4467,7 +4469,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4477,7 +4479,7 @@
       <c r="C61">
         <v>0.01</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="6">
         <v>1.0465997253187321E-5</v>
       </c>
       <c r="E61">
@@ -4507,7 +4509,7 @@
       <c r="N61">
         <v>0.6</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P61">
@@ -4517,7 +4519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4527,7 +4529,7 @@
       <c r="C62">
         <v>0.01</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <v>3.001445334468209E-6</v>
       </c>
       <c r="E62">
@@ -4557,7 +4559,7 @@
       <c r="N62">
         <v>0.6</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="6">
         <v>1.7336855150803491E-7</v>
       </c>
       <c r="P62">
@@ -4567,7 +4569,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4577,8 +4579,8 @@
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="D63">
-        <v>0</v>
+      <c r="D63" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4607,7 +4609,7 @@
       <c r="N63">
         <v>0</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="6">
         <v>0</v>
       </c>
       <c r="P63">
@@ -4617,7 +4619,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4627,7 +4629,7 @@
       <c r="C64">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="6">
         <v>2.9395037305763873E-4</v>
       </c>
       <c r="E64">
@@ -4657,7 +4659,7 @@
       <c r="N64">
         <v>0.1</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="6">
         <v>4.6564575681463864E-6</v>
       </c>
       <c r="P64">
@@ -4667,7 +4669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4677,8 +4679,8 @@
       <c r="C65">
         <v>0</v>
       </c>
-      <c r="D65">
-        <v>0</v>
+      <c r="D65" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4707,7 +4709,7 @@
       <c r="N65">
         <v>0</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="6">
         <v>0</v>
       </c>
       <c r="P65">
@@ -4717,7 +4719,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4727,8 +4729,8 @@
       <c r="C66">
         <v>0</v>
       </c>
-      <c r="D66">
-        <v>0</v>
+      <c r="D66" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4757,7 +4759,7 @@
       <c r="N66">
         <v>0</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="6">
         <v>0</v>
       </c>
       <c r="P66">
@@ -4767,7 +4769,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4777,8 +4779,8 @@
       <c r="C67">
         <v>0</v>
       </c>
-      <c r="D67">
-        <v>0</v>
+      <c r="D67" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4807,7 +4809,7 @@
       <c r="N67">
         <v>0</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="6">
         <v>0</v>
       </c>
       <c r="P67">
@@ -4817,7 +4819,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4827,8 +4829,8 @@
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="D68">
-        <v>0</v>
+      <c r="D68" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4857,7 +4859,7 @@
       <c r="N68">
         <v>0</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="6">
         <v>0</v>
       </c>
       <c r="P68">
@@ -4867,7 +4869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4877,7 +4879,7 @@
       <c r="C69">
         <v>0.71</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="6">
         <v>1.2253427485145619E-6</v>
       </c>
       <c r="E69">
@@ -4907,7 +4909,7 @@
       <c r="N69">
         <v>0.7</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="6">
         <v>2.5251221992514671E-6</v>
       </c>
       <c r="P69">
@@ -4917,7 +4919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4927,7 +4929,7 @@
       <c r="C70">
         <v>0.27</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="6">
         <v>4.954888106087532E-5</v>
       </c>
       <c r="E70">
@@ -4957,7 +4959,7 @@
       <c r="N70">
         <v>0.3</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="6">
         <v>1.144271547834897E-7</v>
       </c>
       <c r="P70">
@@ -4967,7 +4969,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4977,7 +4979,7 @@
       <c r="C71">
         <v>0.27</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="6">
         <v>4.954888106087532E-6</v>
       </c>
       <c r="E71">
@@ -5007,7 +5009,7 @@
       <c r="N71">
         <v>0.3</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="6">
         <v>1.144271547834897E-7</v>
       </c>
       <c r="P71">
@@ -5017,7 +5019,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5027,8 +5029,8 @@
       <c r="C72">
         <v>0</v>
       </c>
-      <c r="D72">
-        <v>0</v>
+      <c r="D72" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5057,7 +5059,7 @@
       <c r="N72">
         <v>0</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="6">
         <v>0</v>
       </c>
       <c r="P72">
@@ -5067,7 +5069,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5077,8 +5079,8 @@
       <c r="C73">
         <v>0</v>
       </c>
-      <c r="D73">
-        <v>0</v>
+      <c r="D73" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5107,7 +5109,7 @@
       <c r="N73">
         <v>0</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="6">
         <v>0</v>
       </c>
       <c r="P73">
@@ -5117,7 +5119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5127,8 +5129,8 @@
       <c r="C74">
         <v>0</v>
       </c>
-      <c r="D74">
-        <v>0</v>
+      <c r="D74" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5157,7 +5159,7 @@
       <c r="N74">
         <v>0</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="6">
         <v>0</v>
       </c>
       <c r="P74">
@@ -5167,7 +5169,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5177,8 +5179,8 @@
       <c r="C75">
         <v>0</v>
       </c>
-      <c r="D75">
-        <v>0</v>
+      <c r="D75" s="6">
+        <v>1.2253427485145619E-6</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5207,7 +5209,7 @@
       <c r="N75">
         <v>0</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="6">
         <v>0</v>
       </c>
       <c r="P75">
@@ -5217,7 +5219,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5227,7 +5229,7 @@
       <c r="C76">
         <v>0.15</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="6">
         <v>5.8790074611527742E-5</v>
       </c>
       <c r="E76">
@@ -5257,7 +5259,7 @@
       <c r="N76">
         <v>0.1</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="6">
         <v>4.6564575681463864E-6</v>
       </c>
       <c r="P76">
@@ -5267,7 +5269,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5277,7 +5279,7 @@
       <c r="C77">
         <v>0.26127846043986142</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="6">
         <v>1.9525688750934151E-5</v>
       </c>
       <c r="E77">
@@ -5307,7 +5309,7 @@
       <c r="N77">
         <v>0.89683932838053992</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="6">
         <v>4.4000662946552396E-6</v>
       </c>
       <c r="P77">
@@ -5317,7 +5319,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5327,7 +5329,7 @@
       <c r="C78">
         <v>0.26541621318629882</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="6">
         <v>2.074877133465339E-4</v>
       </c>
       <c r="E78">
@@ -5357,7 +5359,7 @@
       <c r="N78">
         <v>0.70748702766123306</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="6">
         <v>5.6950330607246117E-5</v>
       </c>
       <c r="P78">
@@ -5367,7 +5369,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5377,7 +5379,7 @@
       <c r="C79">
         <v>0.21509165312251499</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="6">
         <v>2.5921069837650301E-4</v>
       </c>
       <c r="E79">
@@ -5407,8 +5409,8 @@
       <c r="N79">
         <v>0</v>
       </c>
-      <c r="O79">
-        <v>0</v>
+      <c r="O79" s="6">
+        <v>5.9549436023729629E-6</v>
       </c>
       <c r="P79">
         <v>0.57193779446087067</v>
@@ -5417,7 +5419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5427,7 +5429,7 @@
       <c r="C80">
         <v>0.33363258190627798</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="6">
         <v>2.3884241003555441E-4</v>
       </c>
       <c r="E80">
@@ -5457,7 +5459,7 @@
       <c r="N80">
         <v>0.47921547104565559</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="6">
         <v>6.0741394125660283E-5</v>
       </c>
       <c r="P80">
@@ -5467,7 +5469,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5477,7 +5479,7 @@
       <c r="C81">
         <v>0.33982260872497161</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="6">
         <v>2.7257916559173228E-4</v>
       </c>
       <c r="E81">
@@ -5507,7 +5509,7 @@
       <c r="N81">
         <v>0.49487366438871411</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="6">
         <v>6.5175074183974337E-5</v>
       </c>
       <c r="P81">
@@ -5517,7 +5519,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5527,7 +5529,7 @@
       <c r="C82">
         <v>0.25372348779779141</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="6">
         <v>3.0386333933358121E-5</v>
       </c>
       <c r="E82">
@@ -5557,7 +5559,7 @@
       <c r="N82">
         <v>0.64684503552886663</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="6">
         <v>6.4158354563086591E-5</v>
       </c>
       <c r="P82">
@@ -5567,7 +5569,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5577,7 +5579,7 @@
       <c r="C83">
         <v>0.25657677437619392</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="6">
         <v>3.0608475461287599E-5</v>
       </c>
       <c r="E83">
@@ -5607,7 +5609,7 @@
       <c r="N83">
         <v>0.64610444762533403</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="6">
         <v>6.4309218868847495E-5</v>
       </c>
       <c r="P83">
@@ -5617,7 +5619,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5627,7 +5629,7 @@
       <c r="C84">
         <v>0.2561492698801251</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="6">
         <v>3.0803347322562661E-5</v>
       </c>
       <c r="E84">
@@ -5657,7 +5659,7 @@
       <c r="N84">
         <v>0.64415515061945494</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="6">
         <v>6.4026362873474202E-5</v>
       </c>
       <c r="P84">
@@ -5667,7 +5669,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5677,7 +5679,7 @@
       <c r="C85">
         <v>0.20736815689092841</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="6">
         <v>3.6575944355670947E-5</v>
       </c>
       <c r="E85">
@@ -5707,7 +5709,7 @@
       <c r="N85">
         <v>0.76014073901158019</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="6">
         <v>5.845052098531026E-6</v>
       </c>
       <c r="P85">
@@ -5717,7 +5719,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5727,7 +5729,7 @@
       <c r="C86">
         <v>0.22077591328672699</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="6">
         <v>3.2829783457841232E-5</v>
       </c>
       <c r="E86">
@@ -5757,7 +5759,7 @@
       <c r="N86">
         <v>0.74641179328540819</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="6">
         <v>5.9549436023729629E-6</v>
       </c>
       <c r="P86">
@@ -5767,7 +5769,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5777,7 +5779,7 @@
       <c r="C87">
         <v>0.20817160057638301</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="6">
         <v>3.6170561873940083E-5</v>
       </c>
       <c r="E87">
@@ -5807,7 +5809,7 @@
       <c r="N87">
         <v>0.74828671641422317</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="6">
         <v>5.9355405075537129E-6</v>
       </c>
       <c r="P87">
@@ -5817,7 +5819,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5827,7 +5829,7 @@
       <c r="C88">
         <v>0.2190710068646799</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6">
         <v>3.2940080582907968E-5</v>
       </c>
       <c r="E88">
@@ -5857,7 +5859,7 @@
       <c r="N88">
         <v>0.75848504158874486</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="6">
         <v>5.85642753640666E-6</v>
       </c>
       <c r="P88">
@@ -5867,7 +5869,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5877,7 +5879,7 @@
       <c r="C89">
         <v>0.20723935814428199</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="6">
         <v>3.6404738862639412E-5</v>
       </c>
       <c r="E89">
@@ -5907,7 +5909,7 @@
       <c r="N89">
         <v>0.76091295133729886</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="6">
         <v>5.8274691862496074E-6</v>
       </c>
       <c r="P89">
@@ -5917,7 +5919,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5927,7 +5929,7 @@
       <c r="C90">
         <v>0.20346693391568041</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="6">
         <v>3.8247408472579472E-5</v>
       </c>
       <c r="E90">
@@ -5957,7 +5959,7 @@
       <c r="N90">
         <v>0.7605261798600127</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="6">
         <v>5.8569511174093994E-6</v>
       </c>
       <c r="P90">
@@ -5967,7 +5969,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5977,7 +5979,7 @@
       <c r="C91">
         <v>0.29041801231088982</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="6">
         <v>6.2573306030742773E-4</v>
       </c>
       <c r="E91">
@@ -6007,8 +6009,8 @@
       <c r="N91">
         <v>0</v>
       </c>
-      <c r="O91">
-        <v>0</v>
+      <c r="O91" s="6">
+        <v>6.4309218868847495E-5</v>
       </c>
       <c r="P91">
         <v>0.1048601334099034</v>
@@ -6017,7 +6019,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6027,7 +6029,7 @@
       <c r="C92">
         <v>0.38255428499991451</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="6">
         <v>1.7236684925092288E-5</v>
       </c>
       <c r="E92">
@@ -6057,7 +6059,7 @@
       <c r="N92">
         <v>0.49553555710933628</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="6">
         <v>7.5510027747873251E-6</v>
       </c>
       <c r="P92">
@@ -6067,7 +6069,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6077,7 +6079,7 @@
       <c r="C93">
         <v>0.61843370619641069</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="6">
         <v>6.7917001501448387E-5</v>
       </c>
       <c r="E93">
@@ -6107,7 +6109,7 @@
       <c r="N93">
         <v>0.90932006537976784</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="6">
         <v>2.979914679082961E-6</v>
       </c>
       <c r="P93">
@@ -6117,7 +6119,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6127,7 +6129,7 @@
       <c r="C94">
         <v>0.26259459096303628</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="6">
         <v>2.042094435761678E-4</v>
       </c>
       <c r="E94">
@@ -6157,7 +6159,7 @@
       <c r="N94">
         <v>0.92478247751903064</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="6">
         <v>4.1305855337459482E-5</v>
       </c>
       <c r="P94">
@@ -6167,7 +6169,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6177,7 +6179,7 @@
       <c r="C95">
         <v>0.4062603133553625</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="6">
         <v>9.0601357949444969E-5</v>
       </c>
       <c r="E95">
@@ -6207,7 +6209,7 @@
       <c r="N95">
         <v>0.51033522122729935</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="6">
         <v>9.971546348204417E-5</v>
       </c>
       <c r="P95">
@@ -6217,7 +6219,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6227,7 +6229,7 @@
       <c r="C96">
         <v>0.1137021148028325</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="6">
         <v>9.072349126700703E-6</v>
       </c>
       <c r="E96">
@@ -6257,7 +6259,7 @@
       <c r="N96">
         <v>0.2410779709559023</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="6">
         <v>4.7466868373818459E-5</v>
       </c>
       <c r="P96">
@@ -6267,7 +6269,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6277,7 +6279,7 @@
       <c r="C97">
         <v>0.14447865974291171</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="6">
         <v>9.6066313869053027E-6</v>
       </c>
       <c r="E97">
@@ -6307,7 +6309,7 @@
       <c r="N97">
         <v>0</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="6">
         <v>0</v>
       </c>
       <c r="P97">
@@ -6317,7 +6319,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6327,7 +6329,7 @@
       <c r="C98">
         <v>0.1225483362967822</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="6">
         <v>9.2323588741427568E-6</v>
       </c>
       <c r="E98">
@@ -6357,7 +6359,7 @@
       <c r="N98">
         <v>0.2348398661665666</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="6">
         <v>5.0242868840095218E-5</v>
       </c>
       <c r="P98">
@@ -6367,7 +6369,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6377,7 +6379,7 @@
       <c r="C99">
         <v>0.1263529376826231</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="6">
         <v>9.0450108751407476E-6</v>
       </c>
       <c r="E99">
@@ -6407,7 +6409,7 @@
       <c r="N99">
         <v>0.23587869230528</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="6">
         <v>4.8733528223685918E-5</v>
       </c>
       <c r="P99">
@@ -6417,7 +6419,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6427,7 +6429,7 @@
       <c r="C100">
         <v>0.1196126025034101</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="6">
         <v>9.277914274330129E-6</v>
       </c>
       <c r="E100">
@@ -6457,7 +6459,7 @@
       <c r="N100">
         <v>0.23708721509113129</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="6">
         <v>5.005768457891968E-5</v>
       </c>
       <c r="P100">
@@ -6467,7 +6469,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6477,7 +6479,7 @@
       <c r="C101">
         <v>0.24424000658960329</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="6">
         <v>0.33752503620073848</v>
       </c>
       <c r="E101">
@@ -6507,7 +6509,7 @@
       <c r="N101">
         <v>0.53825503137542385</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="6">
         <v>8.2412124081424107E-2</v>
       </c>
       <c r="P101">
@@ -6517,7 +6519,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6527,7 +6529,7 @@
       <c r="C102">
         <v>0.13009266504039371</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="6">
         <v>9.4176502708629994E-6</v>
       </c>
       <c r="E102">
@@ -6557,7 +6559,7 @@
       <c r="N102">
         <v>0.23688575493526609</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="6">
         <v>4.7394893080111993E-5</v>
       </c>
       <c r="P102">
@@ -6567,7 +6569,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6577,7 +6579,7 @@
       <c r="C103">
         <v>0.1262176528885077</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="6">
         <v>9.2348728865772822E-6</v>
       </c>
       <c r="E103">
@@ -6607,7 +6609,7 @@
       <c r="N103">
         <v>0.2620829036956101</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="6">
         <v>4.4816298647536449E-5</v>
       </c>
       <c r="P103">
@@ -6617,7 +6619,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6627,7 +6629,7 @@
       <c r="C104">
         <v>0.1144499826905726</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="6">
         <v>9.1977730671282841E-6</v>
       </c>
       <c r="E104">
@@ -6657,7 +6659,7 @@
       <c r="N104">
         <v>0.2330857693985795</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="6">
         <v>5.1191717656752958E-5</v>
       </c>
       <c r="P104">
@@ -6667,7 +6669,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6677,7 +6679,7 @@
       <c r="C105">
         <v>0.24165393676610281</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="6">
         <v>3.385731588005132</v>
       </c>
       <c r="E105">
@@ -6707,7 +6709,7 @@
       <c r="N105">
         <v>0.53401383481002496</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="6">
         <v>1.461963719290716</v>
       </c>
       <c r="P105">
@@ -6717,7 +6719,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6727,7 +6729,7 @@
       <c r="C106">
         <v>0.12630676062180449</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="6">
         <v>9.4069976980320032E-6</v>
       </c>
       <c r="E106">
@@ -6757,7 +6759,7 @@
       <c r="N106">
         <v>0</v>
       </c>
-      <c r="O106">
+      <c r="O106" s="6">
         <v>0</v>
       </c>
       <c r="P106">
@@ -6767,7 +6769,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6777,7 +6779,7 @@
       <c r="C107">
         <v>0.23774112560874919</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="6">
         <v>1.451756825358715</v>
       </c>
       <c r="E107">
@@ -6807,7 +6809,7 @@
       <c r="N107">
         <v>0.53111444789030959</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="6">
         <v>0.2140751285562987</v>
       </c>
       <c r="P107">
@@ -6817,7 +6819,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6827,7 +6829,7 @@
       <c r="C108">
         <v>0.12532484844300551</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="6">
         <v>9.2616981980996587E-6</v>
       </c>
       <c r="E108">
@@ -6857,7 +6859,7 @@
       <c r="N108">
         <v>0</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="6">
         <v>0</v>
       </c>
       <c r="P108">
@@ -6867,7 +6869,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6877,7 +6879,7 @@
       <c r="C109">
         <v>0.13121994029910669</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="6">
         <v>9.5909007374853155E-6</v>
       </c>
       <c r="E109">
@@ -6907,7 +6909,7 @@
       <c r="N109">
         <v>0</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="6">
         <v>0</v>
       </c>
       <c r="P109">
@@ -6917,7 +6919,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6927,7 +6929,7 @@
       <c r="C110">
         <v>0.11847260709030021</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="6">
         <v>9.1615023771958187E-6</v>
       </c>
       <c r="E110">
@@ -6957,7 +6959,7 @@
       <c r="N110">
         <v>0.23900055416772689</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="6">
         <v>4.8583094170763471E-5</v>
       </c>
       <c r="P110">
@@ -6967,7 +6969,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6977,7 +6979,7 @@
       <c r="C111">
         <v>0.1167421698034859</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="6">
         <v>4.5208762926774183E-5</v>
       </c>
       <c r="E111">
@@ -7007,7 +7009,7 @@
       <c r="N111">
         <v>0.5703983696536431</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="6">
         <v>6.0826082605543692E-5</v>
       </c>
       <c r="P111">
@@ -7017,7 +7019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7027,7 +7029,7 @@
       <c r="C112">
         <v>0.28799068633160502</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="6">
         <v>1.3519648280125519E-4</v>
       </c>
       <c r="E112">
@@ -7057,7 +7059,7 @@
       <c r="N112">
         <v>0.56805462187754285</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="6">
         <v>5.1545762958767279E-5</v>
       </c>
       <c r="P112">
@@ -7067,7 +7069,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7077,7 +7079,7 @@
       <c r="C113">
         <v>0.61192223099208676</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="6">
         <v>2.719711599318969E-5</v>
       </c>
       <c r="E113">
@@ -7107,7 +7109,7 @@
       <c r="N113">
         <v>0.95</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="6">
         <v>3.0749907004320221E-5</v>
       </c>
       <c r="P113">
@@ -7117,7 +7119,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7127,7 +7129,7 @@
       <c r="C114">
         <v>0.13561918661274669</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="6">
         <v>5.3705718272335288E-5</v>
       </c>
       <c r="E114">
@@ -7157,7 +7159,7 @@
       <c r="N114">
         <v>0.56278509850727088</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="6">
         <v>6.3910744540197185E-5</v>
       </c>
       <c r="P114">
@@ -7167,7 +7169,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7177,7 +7179,7 @@
       <c r="C115">
         <v>0.28901783889600091</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="6">
         <v>1.2288531042713291E-4</v>
       </c>
       <c r="E115">
@@ -7207,7 +7209,7 @@
       <c r="N115">
         <v>0.57859105854878634</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="6">
         <v>5.0850261452501707E-5</v>
       </c>
       <c r="P115">
@@ -7217,7 +7219,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7227,7 +7229,7 @@
       <c r="C116">
         <v>0.1072233313191565</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="6">
         <v>3.029190104411476E-5</v>
       </c>
       <c r="E116">
@@ -7257,7 +7259,7 @@
       <c r="N116">
         <v>0.48615650473915839</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="6">
         <v>6.5254376126967648E-5</v>
       </c>
       <c r="P116">
@@ -7267,7 +7269,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7277,8 +7279,8 @@
       <c r="C117">
         <v>0.5</v>
       </c>
-      <c r="D117">
-        <v>0</v>
+      <c r="D117" s="6">
+        <v>1.5373948122389991E-14</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -7307,7 +7309,7 @@
       <c r="N117">
         <v>0.6</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="6">
         <v>3.8450086168188289E-7</v>
       </c>
       <c r="P117">
@@ -7317,7 +7319,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7327,7 +7329,7 @@
       <c r="C118">
         <v>0.49999999943332152</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="6">
         <v>4.9891004740699292E-13</v>
       </c>
       <c r="E118">
@@ -7357,8 +7359,8 @@
       <c r="N118">
         <v>0</v>
       </c>
-      <c r="O118">
-        <v>0</v>
+      <c r="O118" s="6">
+        <v>6.5323274654917417E-7</v>
       </c>
       <c r="P118">
         <v>0.1035873619892634</v>
@@ -7367,7 +7369,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7377,7 +7379,7 @@
       <c r="C119">
         <v>0.19766453891466279</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="6">
         <v>1.9918739443749929E-4</v>
       </c>
       <c r="E119">
@@ -7407,7 +7409,7 @@
       <c r="N119">
         <v>0.52046505970010515</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="6">
         <v>4.5978196914070631E-4</v>
       </c>
       <c r="P119">
@@ -7417,7 +7419,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7427,7 +7429,7 @@
       <c r="C120">
         <v>0.21840409107795941</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="6">
         <v>2.6266492287112168E-7</v>
       </c>
       <c r="E120">
@@ -7457,7 +7459,7 @@
       <c r="N120">
         <v>0.55786837859608063</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="6">
         <v>2.8033148612390148E-4</v>
       </c>
       <c r="P120">
@@ -7467,7 +7469,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7477,7 +7479,7 @@
       <c r="C121">
         <v>0.4434934132816557</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="6">
         <v>1.2202232262812319E-7</v>
       </c>
       <c r="E121">
@@ -7507,7 +7509,7 @@
       <c r="N121">
         <v>0.34475238956367099</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="6">
         <v>6.5323274654917417E-7</v>
       </c>
       <c r="P121">
@@ -7517,7 +7519,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7527,7 +7529,7 @@
       <c r="C122">
         <v>0.21334224243770891</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="6">
         <v>2.5902759518928769E-7</v>
       </c>
       <c r="E122">
@@ -7557,7 +7559,7 @@
       <c r="N122">
         <v>0.55830756136233561</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="6">
         <v>2.8104383547810469E-5</v>
       </c>
       <c r="P122">
@@ -7567,7 +7569,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7577,7 +7579,7 @@
       <c r="C123">
         <v>0.49999999982537757</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="6">
         <v>1.5373948122389991E-14</v>
       </c>
       <c r="E123">
@@ -7607,8 +7609,8 @@
       <c r="N123">
         <v>0</v>
       </c>
-      <c r="O123">
-        <v>0</v>
+      <c r="O123" s="6">
+        <v>6.5323274654917417E-7</v>
       </c>
       <c r="P123">
         <v>5.9309314806656473E-2</v>
@@ -7617,7 +7619,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7627,7 +7629,7 @@
       <c r="C124">
         <v>2.489649743562521E-2</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="6">
         <v>2.9064897533731739E-6</v>
       </c>
       <c r="E124">
@@ -7657,7 +7659,7 @@
       <c r="N124">
         <v>0.29832286913823391</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="6">
         <v>1.8475814038259729E-4</v>
       </c>
       <c r="P124">
@@ -7667,7 +7669,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7677,7 +7679,7 @@
       <c r="C125">
         <v>3.3949557659051638E-2</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="6">
         <v>9.3936067400843306E-5</v>
       </c>
       <c r="E125">
@@ -7710,7 +7712,7 @@
       <c r="N125">
         <v>0.44110962489362382</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="6">
         <v>1.4298652416982549E-4</v>
       </c>
       <c r="P125">
@@ -7720,7 +7722,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7730,8 +7732,8 @@
       <c r="C126">
         <v>0</v>
       </c>
-      <c r="D126">
-        <v>0</v>
+      <c r="D126" s="6">
+        <v>1.4235639075876649E-4</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -7763,7 +7765,7 @@
       <c r="N126">
         <v>0.3</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="6">
         <v>4.2435596834341127E-4</v>
       </c>
       <c r="P126">
@@ -7773,7 +7775,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7783,7 +7785,7 @@
       <c r="C127">
         <v>5.14492104036691E-2</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="6">
         <v>1.4235639075876649E-4</v>
       </c>
       <c r="E127">
@@ -7816,7 +7818,7 @@
       <c r="N127">
         <v>0.44014762849325062</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="6">
         <v>1.465575283779497E-4</v>
       </c>
       <c r="P127">
@@ -7826,7 +7828,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7836,7 +7838,7 @@
       <c r="C128">
         <v>0.28154042394208478</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="6">
         <v>3.4584408227336598E-5</v>
       </c>
       <c r="E128">
@@ -7869,7 +7871,7 @@
       <c r="N128">
         <v>0.32798668238181611</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="6">
         <v>5.2468963287760363E-5</v>
       </c>
       <c r="P128">
@@ -7879,7 +7881,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7889,7 +7891,7 @@
       <c r="C129">
         <v>0.28068717003339327</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="6">
         <v>3.4591235269544902E-5</v>
       </c>
       <c r="E129">
@@ -7922,7 +7924,7 @@
       <c r="N129">
         <v>0.32762193004032247</v>
       </c>
-      <c r="O129">
+      <c r="O129" s="6">
         <v>5.2211560244626982E-5</v>
       </c>
       <c r="P129">
@@ -7932,7 +7934,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7942,7 +7944,7 @@
       <c r="C130">
         <v>0.28101794508829342</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="6">
         <v>3.4514670793719292E-5</v>
       </c>
       <c r="E130">
@@ -7975,7 +7977,7 @@
       <c r="N130">
         <v>0.32907123867249161</v>
       </c>
-      <c r="O130">
+      <c r="O130" s="6">
         <v>4.3684811623006517E-3</v>
       </c>
       <c r="P130">
@@ -7985,7 +7987,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7995,7 +7997,7 @@
       <c r="C131">
         <v>0.28033989818663441</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="6">
         <v>3.46334801445929E-5</v>
       </c>
       <c r="E131">
@@ -8028,7 +8030,7 @@
       <c r="N131">
         <v>0.32788748413693719</v>
       </c>
-      <c r="O131">
+      <c r="O131" s="6">
         <v>5.248353445983665E-5</v>
       </c>
       <c r="P131">
@@ -8038,7 +8040,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8048,7 +8050,7 @@
       <c r="C132">
         <v>0.28199074087408033</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="6">
         <v>3.452696201291715E-5</v>
       </c>
       <c r="E132">
@@ -8081,7 +8083,7 @@
       <c r="N132">
         <v>0.32881121211745662</v>
       </c>
-      <c r="O132">
+      <c r="O132" s="6">
         <v>5.3187138759899828E-5</v>
       </c>
       <c r="P132">
@@ -8091,7 +8093,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8101,8 +8103,8 @@
       <c r="C133">
         <v>0</v>
       </c>
-      <c r="D133">
-        <v>0</v>
+      <c r="D133" s="6">
+        <v>3.452696201291715E-5</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -8134,7 +8136,7 @@
       <c r="N133">
         <v>0.3</v>
       </c>
-      <c r="O133">
+      <c r="O133" s="6">
         <v>3.5153334274573128E-4</v>
       </c>
       <c r="P133">
@@ -8144,7 +8146,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8154,7 +8156,7 @@
       <c r="C134">
         <v>0.25700701641110008</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="6">
         <v>1.0713718231149081E-5</v>
       </c>
       <c r="E134">
@@ -8187,7 +8189,7 @@
       <c r="N134">
         <v>0.92285291858568574</v>
       </c>
-      <c r="O134">
+      <c r="O134" s="6">
         <v>5.5937841157116472E-6</v>
       </c>
       <c r="P134">
@@ -8197,7 +8199,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8207,8 +8209,8 @@
       <c r="C135">
         <v>0</v>
       </c>
-      <c r="D135">
-        <v>0</v>
+      <c r="D135" s="6">
+        <v>3.452696201291715E-5</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -8240,7 +8242,7 @@
       <c r="N135">
         <v>0.7367168197414411</v>
       </c>
-      <c r="O135">
+      <c r="O135" s="6">
         <v>6.5070535490263214E-4</v>
       </c>
       <c r="P135">
@@ -8250,7 +8252,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8260,8 +8262,8 @@
       <c r="C136">
         <v>0</v>
       </c>
-      <c r="D136">
-        <v>0</v>
+      <c r="D136" s="6">
+        <v>3.452696201291715E-5</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -8293,7 +8295,7 @@
       <c r="N136">
         <v>0.74630502259336318</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="6">
         <v>4.0651531595497489E-4</v>
       </c>
       <c r="P136">
@@ -8303,7 +8305,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8313,7 +8315,7 @@
       <c r="C137">
         <v>0</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="6">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E137">
@@ -8343,7 +8345,7 @@
       <c r="N137">
         <v>0.1</v>
       </c>
-      <c r="O137" s="2">
+      <c r="O137" s="6">
         <v>1.134512366193517E-4</v>
       </c>
       <c r="P137">
@@ -8353,7 +8355,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8363,7 +8365,7 @@
       <c r="C138">
         <v>0</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="6">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E138">
@@ -8393,7 +8395,7 @@
       <c r="N138">
         <v>0.15</v>
       </c>
-      <c r="O138" s="2">
+      <c r="O138" s="6">
         <v>1.6097884150590932E-5</v>
       </c>
       <c r="P138">
@@ -8403,7 +8405,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8413,7 +8415,7 @@
       <c r="C139">
         <v>0</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E139">
@@ -8443,7 +8445,7 @@
       <c r="N139">
         <v>0.1</v>
       </c>
-      <c r="O139" s="2">
+      <c r="O139" s="6">
         <v>1.1345123661935169E-5</v>
       </c>
       <c r="P139">
@@ -8453,7 +8455,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8463,7 +8465,7 @@
       <c r="C140">
         <v>0</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="6">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E140">
@@ -8493,7 +8495,7 @@
       <c r="N140">
         <v>0.25</v>
       </c>
-      <c r="O140" s="2">
+      <c r="O140" s="6">
         <v>8.7036602013743362E-6</v>
       </c>
       <c r="P140">
@@ -8503,7 +8505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8513,7 +8515,7 @@
       <c r="C141">
         <v>0.2</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="6">
         <v>3.3410914553704672E-5</v>
       </c>
       <c r="E141">
@@ -8543,7 +8545,7 @@
       <c r="N141">
         <v>0.32500000000000001</v>
       </c>
-      <c r="O141" s="2">
+      <c r="O141" s="6">
         <v>5.8010389962708841E-6</v>
       </c>
       <c r="P141">
@@ -8553,7 +8555,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -8563,7 +8565,7 @@
       <c r="C142">
         <v>0.2</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="6">
         <v>3.3410914553704661E-6</v>
       </c>
       <c r="E142">
@@ -8593,7 +8595,7 @@
       <c r="N142">
         <v>0.32500000000000001</v>
       </c>
-      <c r="O142" s="2">
+      <c r="O142" s="6">
         <v>5.8010389962708841E-6</v>
       </c>
       <c r="P142">
@@ -8603,7 +8605,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -8613,7 +8615,7 @@
       <c r="C143">
         <v>0</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="6">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E143">
@@ -8643,7 +8645,7 @@
       <c r="N143">
         <v>0.2</v>
       </c>
-      <c r="O143" s="2">
+      <c r="O143" s="6">
         <v>2.2712324009117082E-5</v>
       </c>
       <c r="P143">
@@ -8653,7 +8655,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -8663,7 +8665,7 @@
       <c r="C144">
         <v>0</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="6">
         <v>3.3000000000000003E-5</v>
       </c>
       <c r="E144">
@@ -8693,7 +8695,7 @@
       <c r="N144">
         <v>0.2</v>
       </c>
-      <c r="O144" s="2">
+      <c r="O144" s="6">
         <v>2.2712324009117082E-5</v>
       </c>
       <c r="P144">
@@ -8703,7 +8705,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -8713,8 +8715,8 @@
       <c r="C145">
         <v>0</v>
       </c>
-      <c r="D145" s="3">
-        <v>0</v>
+      <c r="D145" s="6">
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -8743,7 +8745,7 @@
       <c r="N145">
         <v>0.2</v>
       </c>
-      <c r="O145" s="2">
+      <c r="O145" s="6">
         <v>2.2712324009117079E-6</v>
       </c>
       <c r="P145">
@@ -8753,7 +8755,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -8763,7 +8765,7 @@
       <c r="C146">
         <v>0</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="6">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E146">
@@ -8793,7 +8795,7 @@
       <c r="N146">
         <v>0.2</v>
       </c>
-      <c r="O146" s="2">
+      <c r="O146" s="6">
         <v>2.2712324009117082E-5</v>
       </c>
       <c r="P146">
@@ -8803,7 +8805,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8813,7 +8815,7 @@
       <c r="C147">
         <v>0.2</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="6">
         <v>1.7369656495609849E-4</v>
       </c>
       <c r="E147">
@@ -8843,7 +8845,7 @@
       <c r="N147">
         <v>0.2</v>
       </c>
-      <c r="O147" s="2">
+      <c r="O147" s="6">
         <v>1.7585553384054311E-5</v>
       </c>
       <c r="P147">
@@ -8853,7 +8855,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8863,7 +8865,7 @@
       <c r="C148">
         <v>0.32</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="6">
         <v>1.3638237876943419E-4</v>
       </c>
       <c r="E148">
@@ -8893,7 +8895,7 @@
       <c r="N148">
         <v>0.2</v>
       </c>
-      <c r="O148" s="2">
+      <c r="O148" s="6">
         <v>1.536707852600559E-5</v>
       </c>
       <c r="P148">
@@ -8903,7 +8905,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8913,7 +8915,7 @@
       <c r="C149">
         <v>0.2</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="6">
         <v>1.736965649560985E-5</v>
       </c>
       <c r="E149">
@@ -8943,7 +8945,7 @@
       <c r="N149">
         <v>0.2</v>
       </c>
-      <c r="O149" s="2">
+      <c r="O149" s="6">
         <v>1.536707852600559E-5</v>
       </c>
       <c r="P149">
@@ -8953,7 +8955,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8963,7 +8965,7 @@
       <c r="C150">
         <v>0.3</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="6">
         <v>4.711584993847872E-5</v>
       </c>
       <c r="E150">
@@ -8993,7 +8995,7 @@
       <c r="N150">
         <v>0.21</v>
       </c>
-      <c r="O150" s="2">
+      <c r="O150" s="6">
         <v>9.6793183731286807E-6</v>
       </c>
       <c r="P150">
@@ -9003,7 +9005,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9013,7 +9015,7 @@
       <c r="C151">
         <v>0.2</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="6">
         <v>1.736965649560985E-5</v>
       </c>
       <c r="E151">
@@ -9043,7 +9045,7 @@
       <c r="N151">
         <v>0.2</v>
       </c>
-      <c r="O151" s="2">
+      <c r="O151" s="6">
         <v>1.536707852600559E-5</v>
       </c>
       <c r="P151">
@@ -9053,7 +9055,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9063,7 +9065,7 @@
       <c r="C152">
         <v>0.32</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="6">
         <v>1.3638237876943419E-4</v>
       </c>
       <c r="E152">
@@ -9093,7 +9095,7 @@
       <c r="N152">
         <v>0.2</v>
       </c>
-      <c r="O152" s="2">
+      <c r="O152" s="6">
         <v>1.536707852600559E-5</v>
       </c>
       <c r="P152">
@@ -9103,7 +9105,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9113,8 +9115,8 @@
       <c r="C153">
         <v>0</v>
       </c>
-      <c r="D153">
-        <v>0</v>
+      <c r="D153" s="6">
+        <v>3.1057523476093599E-5</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -9143,7 +9145,7 @@
       <c r="N153">
         <v>0.45923144228890739</v>
       </c>
-      <c r="O153">
+      <c r="O153" s="6">
         <v>7.9455115689261391E-6</v>
       </c>
       <c r="P153">
@@ -9153,7 +9155,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9163,8 +9165,8 @@
       <c r="C154">
         <v>0</v>
       </c>
-      <c r="D154">
-        <v>0</v>
+      <c r="D154" s="6">
+        <v>3.1057523476093599E-5</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -9193,7 +9195,7 @@
       <c r="N154">
         <v>0.47473059519108202</v>
       </c>
-      <c r="O154">
+      <c r="O154" s="6">
         <v>8.7392425010478769E-6</v>
       </c>
       <c r="P154">
@@ -9203,7 +9205,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9213,8 +9215,8 @@
       <c r="C155">
         <v>0</v>
       </c>
-      <c r="D155">
-        <v>0</v>
+      <c r="D155" s="6">
+        <v>3.1057523476093599E-5</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -9243,7 +9245,7 @@
       <c r="N155">
         <v>0.47876944978838432</v>
       </c>
-      <c r="O155">
+      <c r="O155" s="6">
         <v>8.962458662825395E-6</v>
       </c>
       <c r="P155">
@@ -9253,7 +9255,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9263,8 +9265,8 @@
       <c r="C156">
         <v>0</v>
       </c>
-      <c r="D156">
-        <v>0</v>
+      <c r="D156" s="6">
+        <v>4.4931038901448127E-6</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -9293,7 +9295,7 @@
       <c r="N156">
         <v>0.34944024250317851</v>
       </c>
-      <c r="O156">
+      <c r="O156" s="6">
         <v>5.7169349330976746E-4</v>
       </c>
       <c r="P156">
@@ -9303,7 +9305,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9313,7 +9315,7 @@
       <c r="C157">
         <v>2.4275126401892E-2</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="6">
         <v>4.4931038901448127E-6</v>
       </c>
       <c r="E157">
@@ -9343,8 +9345,8 @@
       <c r="N157">
         <v>0</v>
       </c>
-      <c r="O157">
-        <v>0</v>
+      <c r="O157" s="6">
+        <v>6.9185354007277305E-5</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -9353,7 +9355,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9363,8 +9365,8 @@
       <c r="C158">
         <v>0</v>
       </c>
-      <c r="D158">
-        <v>0</v>
+      <c r="D158" s="6">
+        <v>4.4931038901448127E-6</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -9393,7 +9395,7 @@
       <c r="N158">
         <v>0.35460774127092581</v>
       </c>
-      <c r="O158">
+      <c r="O158" s="6">
         <v>6.9185354007277305E-5</v>
       </c>
       <c r="P158">
@@ -9403,7 +9405,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9413,8 +9415,8 @@
       <c r="C159">
         <v>0</v>
       </c>
-      <c r="D159">
-        <v>0</v>
+      <c r="D159" s="6">
+        <v>3.1057523476093602E-6</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -9443,7 +9445,7 @@
       <c r="N159">
         <v>0.46799984746630269</v>
       </c>
-      <c r="O159">
+      <c r="O159" s="6">
         <v>8.5129373061447129E-6</v>
       </c>
       <c r="P159">
@@ -9453,7 +9455,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9463,8 +9465,8 @@
       <c r="C160">
         <v>0</v>
       </c>
-      <c r="D160">
-        <v>0</v>
+      <c r="D160" s="6">
+        <v>1E-4</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -9493,8 +9495,8 @@
       <c r="N160">
         <v>0</v>
       </c>
-      <c r="O160">
-        <v>0</v>
+      <c r="O160" s="6">
+        <v>1E-4</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -9503,7 +9505,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9513,7 +9515,7 @@
       <c r="C161">
         <v>0.16859466196757239</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="6">
         <v>3.1205330056905869E-5</v>
       </c>
       <c r="E161">
@@ -9543,7 +9545,7 @@
       <c r="N161">
         <v>0.56716720806205112</v>
       </c>
-      <c r="O161">
+      <c r="O161" s="6">
         <v>1.333556153664596E-5</v>
       </c>
       <c r="P161">
@@ -9553,7 +9555,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9563,8 +9565,8 @@
       <c r="C162">
         <v>0</v>
       </c>
-      <c r="D162">
-        <v>0</v>
+      <c r="D162" s="6">
+        <v>3.1057523476093602E-6</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -9593,7 +9595,7 @@
       <c r="N162">
         <v>0.47576363229099272</v>
       </c>
-      <c r="O162">
+      <c r="O162" s="6">
         <v>8.8057444591697232E-6</v>
       </c>
       <c r="P162">
@@ -9603,7 +9605,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9613,7 +9615,7 @@
       <c r="C163">
         <v>0.53256768029623358</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="6">
         <v>4.8461483872421743E-7</v>
       </c>
       <c r="E163">
@@ -9643,7 +9645,7 @@
       <c r="N163">
         <v>0.88758314904989755</v>
       </c>
-      <c r="O163">
+      <c r="O163" s="6">
         <v>2.8815082347729471E-6</v>
       </c>
       <c r="P163">
@@ -9653,7 +9655,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9663,8 +9665,8 @@
       <c r="C164">
         <v>0</v>
       </c>
-      <c r="D164">
-        <v>0</v>
+      <c r="D164" s="6">
+        <v>3.1057523476093599E-5</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -9693,7 +9695,7 @@
       <c r="N164">
         <v>0.48077556066558252</v>
       </c>
-      <c r="O164">
+      <c r="O164" s="6">
         <v>9.2159410875516529E-6</v>
       </c>
       <c r="P164">
@@ -9703,7 +9705,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -9713,8 +9715,8 @@
       <c r="C165">
         <v>0</v>
       </c>
-      <c r="D165">
-        <v>0</v>
+      <c r="D165" s="6">
+        <v>3.1057523476093602E-6</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -9743,7 +9745,7 @@
       <c r="N165">
         <v>0.46610494601249319</v>
       </c>
-      <c r="O165">
+      <c r="O165" s="6">
         <v>8.3779690043550896E-6</v>
       </c>
       <c r="P165">
@@ -9753,7 +9755,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -9763,7 +9765,7 @@
       <c r="C166">
         <v>0.29081674569706362</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="6">
         <v>3.1057523476093579E-5</v>
       </c>
       <c r="E166">
@@ -9793,7 +9795,7 @@
       <c r="N166">
         <v>0.85081709469096123</v>
       </c>
-      <c r="O166">
+      <c r="O166" s="6">
         <v>7.1751424701509012E-5</v>
       </c>
       <c r="P166">
@@ -9803,7 +9805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -9813,7 +9815,7 @@
       <c r="C167">
         <v>0.58879017164220415</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="6">
         <v>6.9763857951103881E-5</v>
       </c>
       <c r="E167">
@@ -9843,8 +9845,8 @@
       <c r="N167">
         <v>0</v>
       </c>
-      <c r="O167">
-        <v>0</v>
+      <c r="O167" s="6">
+        <v>7.1435397953343113E-5</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -9853,7 +9855,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -9863,7 +9865,7 @@
       <c r="C168">
         <v>0.16849571102674191</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="6">
         <v>6.413582111419741E-5</v>
       </c>
       <c r="E168">
@@ -9893,7 +9895,7 @@
       <c r="N168">
         <v>0.22370834966197239</v>
       </c>
-      <c r="O168">
+      <c r="O168" s="6">
         <v>1.38747566103724E-4</v>
       </c>
       <c r="P168">
@@ -9903,7 +9905,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -9913,7 +9915,7 @@
       <c r="C169">
         <v>0.28554858801362898</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="6">
         <v>3.0319606814748659E-5</v>
       </c>
       <c r="E169">
@@ -9943,7 +9945,7 @@
       <c r="N169">
         <v>0.86064949543927838</v>
       </c>
-      <c r="O169">
+      <c r="O169" s="6">
         <v>7.1966717831460446E-5</v>
       </c>
       <c r="P169">
@@ -9953,7 +9955,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -9963,7 +9965,7 @@
       <c r="C170">
         <v>0.1993149587866094</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="6">
         <v>7.7652640881215699E-5</v>
       </c>
       <c r="E170">
@@ -9993,7 +9995,7 @@
       <c r="N170">
         <v>0.8323546650852609</v>
       </c>
-      <c r="O170">
+      <c r="O170" s="6">
         <v>7.1435397953343113E-5</v>
       </c>
       <c r="P170">
@@ -10003,7 +10005,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10013,7 +10015,7 @@
       <c r="C171">
         <v>0.16691091601626429</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="6">
         <v>6.3339572219198536E-5</v>
       </c>
       <c r="E171">
@@ -10043,7 +10045,7 @@
       <c r="N171">
         <v>0.2359852573366541</v>
       </c>
-      <c r="O171">
+      <c r="O171" s="6">
         <v>5.5129431413551998E-5</v>
       </c>
       <c r="P171">
@@ -10053,7 +10055,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10063,7 +10065,7 @@
       <c r="C172">
         <v>0.28541285028056051</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="6">
         <v>1.740692152538697E-5</v>
       </c>
       <c r="E172">
@@ -10093,7 +10095,7 @@
       <c r="N172">
         <v>0.86370376386476277</v>
       </c>
-      <c r="O172">
+      <c r="O172" s="6">
         <v>7.2468985871455827E-5</v>
       </c>
       <c r="P172">
@@ -10103,7 +10105,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10113,7 +10115,7 @@
       <c r="C173">
         <v>0.29199925078605432</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="6">
         <v>3.1054060325371913E-5</v>
       </c>
       <c r="E173">
@@ -10143,7 +10145,7 @@
       <c r="N173">
         <v>0.84695245967049704</v>
       </c>
-      <c r="O173">
+      <c r="O173" s="6">
         <v>7.1464522896968257E-5</v>
       </c>
       <c r="P173">
@@ -10153,7 +10155,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10163,7 +10165,7 @@
       <c r="C174">
         <v>0.29512628860209628</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="6">
         <v>1.914707111459269E-4</v>
       </c>
       <c r="E174">
@@ -10193,7 +10195,7 @@
       <c r="N174">
         <v>0.77749197193539743</v>
       </c>
-      <c r="O174">
+      <c r="O174" s="6">
         <v>7.5326006214644945E-5</v>
       </c>
       <c r="P174">
@@ -10203,7 +10205,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10213,7 +10215,7 @@
       <c r="C175">
         <v>0.21821849382098329</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="6">
         <v>5.7506431715620898E-4</v>
       </c>
       <c r="E175">
@@ -10243,7 +10245,7 @@
       <c r="N175">
         <v>0.84499646705444287</v>
       </c>
-      <c r="O175">
+      <c r="O175" s="6">
         <v>7.1317869529131405E-5</v>
       </c>
       <c r="P175">
@@ -10253,7 +10255,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10263,7 +10265,7 @@
       <c r="C176">
         <v>0.1151212840971462</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="6">
         <v>6.5336730464016815E-5</v>
       </c>
       <c r="E176">
@@ -10293,7 +10295,7 @@
       <c r="N176">
         <v>0.64919917049908882</v>
       </c>
-      <c r="O176">
+      <c r="O176" s="6">
         <v>2.9769323970297111E-5</v>
       </c>
       <c r="P176">
@@ -10303,7 +10305,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10313,7 +10315,7 @@
       <c r="C177">
         <v>0.58207115331980819</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="6">
         <v>6.4270193545709576E-5</v>
       </c>
       <c r="E177">
@@ -10343,7 +10345,7 @@
       <c r="N177">
         <v>0.96575225445274171</v>
       </c>
-      <c r="O177">
+      <c r="O177" s="6">
         <v>9.4075185858948345E-6</v>
       </c>
       <c r="P177">
@@ -10353,7 +10355,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10363,7 +10365,7 @@
       <c r="C178">
         <v>0.28558850230085842</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="6">
         <v>3.0305492357179219E-5</v>
       </c>
       <c r="E178">
@@ -10393,7 +10395,7 @@
       <c r="N178">
         <v>0.85185360127042609</v>
       </c>
-      <c r="O178">
+      <c r="O178" s="6">
         <v>7.1266035096943504E-5</v>
       </c>
       <c r="P178">
@@ -10403,7 +10405,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10413,7 +10415,7 @@
       <c r="C179">
         <v>0.27324667536338959</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="6">
         <v>1.9356276141312679E-5</v>
       </c>
       <c r="E179">
@@ -10443,7 +10445,7 @@
       <c r="N179">
         <v>0.66274092005223562</v>
       </c>
-      <c r="O179">
+      <c r="O179" s="6">
         <v>5.1876001805353843E-5</v>
       </c>
       <c r="P179">
@@ -10453,7 +10455,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10463,7 +10465,7 @@
       <c r="C180">
         <v>0.29170234586536359</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="6">
         <v>2.996883534688093E-5</v>
       </c>
       <c r="E180">
@@ -10493,7 +10495,7 @@
       <c r="N180">
         <v>0.78980169505819486</v>
       </c>
-      <c r="O180">
+      <c r="O180" s="6">
         <v>6.6989273109435978E-5</v>
       </c>
       <c r="P180">
@@ -10503,7 +10505,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10513,13 +10515,13 @@
       <c r="C181">
         <v>0</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="6">
         <v>7.5610733200911411E-4</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
-      <c r="F181" s="4">
+      <c r="F181" s="2">
         <v>65292.245119723579</v>
       </c>
       <c r="G181">
@@ -10543,7 +10545,7 @@
       <c r="N181">
         <v>0</v>
       </c>
-      <c r="O181">
+      <c r="O181" s="6">
         <v>0</v>
       </c>
       <c r="P181">
@@ -10553,7 +10555,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10563,13 +10565,13 @@
       <c r="C182">
         <v>0.5</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="6">
         <v>7.5610733200911411E-4</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
-      <c r="F182" s="4">
+      <c r="F182" s="2">
         <v>25416.39600809797</v>
       </c>
       <c r="G182">
@@ -10593,7 +10595,7 @@
       <c r="N182">
         <v>0</v>
       </c>
-      <c r="O182">
+      <c r="O182" s="6">
         <v>0</v>
       </c>
       <c r="P182">
@@ -10603,7 +10605,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10613,13 +10615,13 @@
       <c r="C183">
         <v>0</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="6">
         <v>7.5610733200911419E-5</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
-      <c r="F183" s="4">
+      <c r="F183" s="2">
         <v>335153.3550000512</v>
       </c>
       <c r="G183">
@@ -10643,7 +10645,7 @@
       <c r="N183">
         <v>0</v>
       </c>
-      <c r="O183">
+      <c r="O183" s="6">
         <v>0</v>
       </c>
       <c r="P183">
@@ -10653,7 +10655,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10663,13 +10665,13 @@
       <c r="C184">
         <v>0.5</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="6">
         <v>7.5610733200911411E-4</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
-      <c r="F184" s="4">
+      <c r="F184" s="2">
         <v>30758.162381892751</v>
       </c>
       <c r="G184">
@@ -10693,7 +10695,7 @@
       <c r="N184">
         <v>0</v>
       </c>
-      <c r="O184">
+      <c r="O184" s="6">
         <v>0</v>
       </c>
       <c r="P184">
@@ -10703,7 +10705,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10713,13 +10715,13 @@
       <c r="C185">
         <v>0.25</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="6">
         <v>5.4352542855263898E-6</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185" s="4">
+      <c r="F185" s="2">
         <v>1451619.1255260811</v>
       </c>
       <c r="G185">
@@ -10743,7 +10745,7 @@
       <c r="N185">
         <v>0</v>
       </c>
-      <c r="O185">
+      <c r="O185" s="6">
         <v>0</v>
       </c>
       <c r="P185">
@@ -10753,7 +10755,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10763,13 +10765,13 @@
       <c r="C186">
         <v>0</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="6">
         <v>7.5610733200911411E-4</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
-      <c r="F186" s="4">
+      <c r="F186" s="2">
         <v>17038.905130680901</v>
       </c>
       <c r="G186">
@@ -10793,7 +10795,7 @@
       <c r="N186">
         <v>0</v>
       </c>
-      <c r="O186">
+      <c r="O186" s="6">
         <v>0</v>
       </c>
       <c r="P186">
@@ -10803,7 +10805,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10813,13 +10815,13 @@
       <c r="C187">
         <v>0.5</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="6">
         <v>7.5610733200911411E-4</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
-      <c r="F187" s="4">
+      <c r="F187" s="2">
         <v>41869.397170513737</v>
       </c>
       <c r="G187">
@@ -10843,7 +10845,7 @@
       <c r="N187">
         <v>0</v>
       </c>
-      <c r="O187">
+      <c r="O187" s="6">
         <v>0</v>
       </c>
       <c r="P187">
@@ -10853,7 +10855,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10863,13 +10865,13 @@
       <c r="C188">
         <v>0.5</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="6">
         <v>7.5610733200911419E-5</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
-      <c r="F188" s="4">
+      <c r="F188" s="2">
         <v>157486.3440611246</v>
       </c>
       <c r="G188">
@@ -10893,7 +10895,7 @@
       <c r="N188">
         <v>0</v>
       </c>
-      <c r="O188">
+      <c r="O188" s="6">
         <v>0</v>
       </c>
       <c r="P188">

--- a/All_Channel_Inputs.xlsx
+++ b/All_Channel_Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\2023\Nestle CPW\Python Workflows\Blueprint DB Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.browne\Documents\Blueprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A97D98B-C8BB-4288-96FB-D73E0AC1EC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBDB2BB-1C59-4C1E-B689-DD6A6D1E63CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>LT Alpha</t>
   </si>
   <si>
-    <t>LT Current ROI</t>
-  </si>
-  <si>
     <t>Opt_Channel</t>
   </si>
   <si>
@@ -972,6 +969,9 @@
   </si>
   <si>
     <t>YouTube_France24_KitKat</t>
+  </si>
+  <si>
+    <t>LT Current_ROI</t>
   </si>
 </sst>
 </file>
@@ -1351,15 +1351,17 @@
   <dimension ref="A1:Q189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,21 +1405,21 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
       </c>
       <c r="D2">
         <v>1.419388591056614E-2</v>
@@ -1438,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
       <c r="M2">
         <v>0.68067978900904447</v>
@@ -1459,18 +1461,18 @@
         <v>0.37306326436817439</v>
       </c>
       <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1491,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3">
         <v>6.0323865363180298</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>8.9160804912229774E-2</v>
@@ -1544,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4">
         <v>0.51744161320625504</v>
@@ -1565,10 +1567,10 @@
         <v>0.35045208677592998</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1.6069049914320021E-2</v>
@@ -1597,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
       </c>
       <c r="M5">
         <v>0.7247391259283309</v>
@@ -1618,10 +1620,10 @@
         <v>0.38781118850215468</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1650,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6">
         <v>0.16658133479275641</v>
@@ -1671,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>0.27338121694902551</v>
@@ -1703,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
         <v>1.4288613974781159</v>
@@ -1724,10 +1726,10 @@
         <v>1.4784774038942541</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>0.26703513254201788</v>
@@ -1756,13 +1758,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
       </c>
       <c r="M8">
         <v>1.381259725268384</v>
@@ -1777,10 +1779,10 @@
         <v>1.519439240888721</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>0.280456166846003</v>
@@ -1809,13 +1811,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9">
         <v>1.539797549948783</v>
@@ -1830,10 +1832,10 @@
         <v>1.5691186083096671</v>
       </c>
       <c r="Q9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>0.26904464036315262</v>
@@ -1862,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
       </c>
       <c r="M10">
         <v>1.4406402902073481</v>
@@ -1883,10 +1885,10 @@
         <v>1.54440733173247</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1894,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>0.26473482541955279</v>
@@ -1915,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11">
         <v>1.4450973527900719</v>
@@ -1936,10 +1938,10 @@
         <v>1.4219783649838069</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>8.8443074057475327E-2</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12">
         <v>0.67923858359872946</v>
@@ -1989,10 +1991,10 @@
         <v>0.35687778299371031</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2000,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>7.3644878916037521E-2</v>
@@ -2021,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13">
         <v>0.53355717655700774</v>
@@ -2042,10 +2044,10 @@
         <v>0.46663047901906662</v>
       </c>
       <c r="Q13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>1.3198080586479409E-2</v>
@@ -2074,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
       </c>
       <c r="M14">
         <v>0.27596185986567889</v>
@@ -2095,10 +2097,10 @@
         <v>0.2437711018326261</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2106,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>0.42081015245325892</v>
@@ -2127,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15">
         <v>0.2293041567701597</v>
@@ -2148,10 +2150,10 @@
         <v>0.65143796862315373</v>
       </c>
       <c r="Q15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2180,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16">
         <v>1.7895147814451939</v>
@@ -2201,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>1.6468056624571532E-2</v>
@@ -2233,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
       </c>
       <c r="M17">
         <v>0.48332246711072341</v>
@@ -2254,10 +2256,10 @@
         <v>0.28124742850700141</v>
       </c>
       <c r="Q17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2286,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M18">
         <v>0.90240499794786055</v>
@@ -2307,10 +2309,10 @@
         <v>1.053764825398279</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2318,7 +2320,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2339,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19">
         <v>0.28757555254222289</v>
@@ -2360,10 +2362,10 @@
         <v>0.45585719199862662</v>
       </c>
       <c r="Q19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>0.37572284344185453</v>
@@ -2392,13 +2394,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
         <v>60</v>
       </c>
-      <c r="K20" t="s">
-        <v>61</v>
-      </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20">
         <v>0.52381061609261059</v>
@@ -2413,10 +2415,10 @@
         <v>0.22939201748168259</v>
       </c>
       <c r="Q20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2424,7 +2426,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>0.32256015232803947</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
         <v>60</v>
       </c>
-      <c r="K21" t="s">
-        <v>61</v>
-      </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M21">
         <v>0.60916338567450035</v>
@@ -2466,10 +2468,10 @@
         <v>0.38211768585768302</v>
       </c>
       <c r="Q21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>9.0713388312470791E-2</v>
@@ -2498,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" t="s">
         <v>60</v>
       </c>
-      <c r="K22" t="s">
-        <v>61</v>
-      </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22">
         <v>2.1058058022564379</v>
@@ -2519,10 +2521,10 @@
         <v>1.7285585069494991</v>
       </c>
       <c r="Q22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23">
         <v>0.36400492157208442</v>
@@ -2551,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" t="s">
         <v>60</v>
       </c>
-      <c r="K23" t="s">
-        <v>61</v>
-      </c>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23">
         <v>0.39952647898796451</v>
@@ -2572,10 +2574,10 @@
         <v>0.2084435656366101</v>
       </c>
       <c r="Q23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2583,7 +2585,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>0.1428052577678163</v>
@@ -2604,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" t="s">
         <v>60</v>
       </c>
-      <c r="K24" t="s">
-        <v>61</v>
-      </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24">
         <v>1.107831372056554</v>
@@ -2625,10 +2627,10 @@
         <v>0.31719468604912621</v>
       </c>
       <c r="Q24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>0.37914339325255342</v>
@@ -2657,13 +2659,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" t="s">
         <v>60</v>
       </c>
-      <c r="K25" t="s">
-        <v>61</v>
-      </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M25">
         <v>0.37552156438411982</v>
@@ -2678,10 +2680,10 @@
         <v>0.1697046421197162</v>
       </c>
       <c r="Q25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2689,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>0.3714209901892086</v>
@@ -2710,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" t="s">
         <v>60</v>
       </c>
-      <c r="K26" t="s">
-        <v>61</v>
-      </c>
       <c r="L26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M26">
         <v>0.53610063915296213</v>
@@ -2731,10 +2733,10 @@
         <v>0.25065196098358722</v>
       </c>
       <c r="Q26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2742,7 +2744,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>0.20127912310558849</v>
@@ -2763,13 +2765,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" t="s">
         <v>60</v>
       </c>
-      <c r="K27" t="s">
-        <v>61</v>
-      </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M27">
         <v>1.037113753245672</v>
@@ -2784,10 +2786,10 @@
         <v>0.71480922480616094</v>
       </c>
       <c r="Q27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28">
         <v>0.37282343081972019</v>
@@ -2816,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" t="s">
         <v>60</v>
       </c>
-      <c r="K28" t="s">
-        <v>61</v>
-      </c>
       <c r="L28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M28">
         <v>0.61451856451158315</v>
@@ -2837,10 +2839,10 @@
         <v>0.27905374741853639</v>
       </c>
       <c r="Q28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29">
         <v>9.8951008377122743E-2</v>
@@ -2869,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" t="s">
         <v>60</v>
       </c>
-      <c r="K29" t="s">
-        <v>61</v>
-      </c>
       <c r="L29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29">
         <v>0.24569739998608159</v>
@@ -2890,10 +2892,10 @@
         <v>7.3405559066280726E-2</v>
       </c>
       <c r="Q29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>0.81102153749306183</v>
@@ -2922,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" t="s">
         <v>60</v>
       </c>
-      <c r="K30" t="s">
-        <v>61</v>
-      </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M30">
         <v>0.62607998848120527</v>
@@ -2943,10 +2945,10 @@
         <v>0.68875180577869988</v>
       </c>
       <c r="Q30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>0.35011114497979839</v>
@@ -2975,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" t="s">
         <v>60</v>
       </c>
-      <c r="K31" t="s">
-        <v>61</v>
-      </c>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M31">
         <v>0.42441788083058252</v>
@@ -2996,10 +2998,10 @@
         <v>0.2483482943311302</v>
       </c>
       <c r="Q31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>0.2060459138707042</v>
@@ -3028,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" t="s">
         <v>60</v>
       </c>
-      <c r="K32" t="s">
-        <v>61</v>
-      </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M32">
         <v>1.241530201053386</v>
@@ -3049,10 +3051,10 @@
         <v>2.044317306059904</v>
       </c>
       <c r="Q32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3060,7 +3062,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>0.3249799963877994</v>
@@ -3081,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" t="s">
         <v>60</v>
       </c>
-      <c r="K33" t="s">
-        <v>61</v>
-      </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M33">
         <v>0.62528515151360065</v>
@@ -3102,10 +3104,10 @@
         <v>0.2586412395550014</v>
       </c>
       <c r="Q33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3113,7 +3115,7 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>0.1756107058562684</v>
@@ -3134,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" t="s">
         <v>85</v>
       </c>
-      <c r="K34" t="s">
-        <v>86</v>
-      </c>
       <c r="L34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M34">
         <v>2.4330676281794932</v>
@@ -3155,10 +3157,10 @@
         <v>0.21738811318171339</v>
       </c>
       <c r="Q34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3166,7 +3168,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>0.15704263885375919</v>
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" t="s">
         <v>85</v>
       </c>
-      <c r="K35" t="s">
-        <v>86</v>
-      </c>
       <c r="L35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35">
         <v>0.94386555031980723</v>
@@ -3208,10 +3210,10 @@
         <v>0.56104860276766522</v>
       </c>
       <c r="Q35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>0.15738149725284459</v>
@@ -3240,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" t="s">
         <v>85</v>
       </c>
-      <c r="K36" t="s">
-        <v>86</v>
-      </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M36">
         <v>0.94864734921059257</v>
@@ -3261,10 +3263,10 @@
         <v>0.56304131308448968</v>
       </c>
       <c r="Q36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37">
         <v>0.15051426633420331</v>
@@ -3293,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" t="s">
         <v>85</v>
       </c>
-      <c r="K37" t="s">
-        <v>86</v>
-      </c>
       <c r="L37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M37">
         <v>1.1112304263673181</v>
@@ -3314,10 +3316,10 @@
         <v>0.61645961475031286</v>
       </c>
       <c r="Q37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38">
         <v>0.14732143400177411</v>
@@ -3346,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" t="s">
         <v>85</v>
       </c>
-      <c r="K38" t="s">
-        <v>86</v>
-      </c>
       <c r="L38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M38">
         <v>2.0339697808876078</v>
@@ -3367,10 +3369,10 @@
         <v>0.47318190816021038</v>
       </c>
       <c r="Q38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39">
         <v>0.53413495475807327</v>
@@ -3399,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" t="s">
         <v>85</v>
       </c>
-      <c r="K39" t="s">
-        <v>86</v>
-      </c>
       <c r="L39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M39">
         <v>0.77139236673316669</v>
@@ -3420,10 +3422,10 @@
         <v>0.70287620970320552</v>
       </c>
       <c r="Q39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>0.3472580542993372</v>
@@ -3452,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40" t="s">
         <v>85</v>
       </c>
-      <c r="K40" t="s">
-        <v>86</v>
-      </c>
       <c r="L40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M40">
         <v>0.49234660624593107</v>
@@ -3473,10 +3475,10 @@
         <v>0.36960002588861429</v>
       </c>
       <c r="Q40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41">
         <v>4.7180307347076678E-2</v>
@@ -3505,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M41">
         <v>0.17727525309780459</v>
@@ -3526,10 +3528,10 @@
         <v>0.44321120097715078</v>
       </c>
       <c r="Q41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3537,7 +3539,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42">
         <v>2.256747707376084E-2</v>
@@ -3558,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M42">
         <v>0.39048739441164831</v>
@@ -3579,10 +3581,10 @@
         <v>1.0321837128910809</v>
       </c>
       <c r="Q42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43">
         <v>3.5131781653719933E-2</v>
@@ -3611,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M43">
         <v>0.18066239783063909</v>
@@ -3632,10 +3634,10 @@
         <v>0.38903346390644072</v>
       </c>
       <c r="Q43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <v>4.6570461829993061E-2</v>
@@ -3664,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M44">
         <v>0.2325939997245437</v>
@@ -3685,10 +3687,10 @@
         <v>0.56079033610275941</v>
       </c>
       <c r="Q44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3696,7 +3698,7 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45">
         <v>3.9644736579825438E-2</v>
@@ -3717,13 +3719,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M45">
         <v>0.30219268985007303</v>
@@ -3738,10 +3740,10 @@
         <v>1.574898892783686</v>
       </c>
       <c r="Q45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3749,7 +3751,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46">
         <v>0.18418430625482241</v>
@@ -3770,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M46">
         <v>0.42849958157511903</v>
@@ -3791,10 +3793,10 @@
         <v>0.16928032857198819</v>
       </c>
       <c r="Q46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47">
         <v>7.3995234872243382E-2</v>
@@ -3823,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M47">
         <v>0.37642726479647193</v>
@@ -3844,10 +3846,10 @@
         <v>0.63979005698032287</v>
       </c>
       <c r="Q47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3855,7 +3857,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48">
         <v>0.35556579667887428</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M48">
         <v>0.30654797176555459</v>
@@ -3897,10 +3899,10 @@
         <v>0.61567987912045186</v>
       </c>
       <c r="Q48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <v>6.8907444260147693E-2</v>
@@ -3929,13 +3931,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M49">
         <v>0.17098559063810909</v>
@@ -3950,10 +3952,10 @@
         <v>0.38494838597340841</v>
       </c>
       <c r="Q49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>5.9503366814904937E-2</v>
@@ -3982,13 +3984,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M50">
         <v>0.54307649394415147</v>
@@ -4003,10 +4005,10 @@
         <v>1.033847264867837</v>
       </c>
       <c r="Q50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>0.01</v>
@@ -4035,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" t="s">
         <v>110</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>111</v>
-      </c>
-      <c r="L51" t="s">
-        <v>112</v>
       </c>
       <c r="M51">
         <v>2.9332082141059122E-2</v>
@@ -4056,10 +4058,10 @@
         <v>7.9630886985457769E-3</v>
       </c>
       <c r="Q51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4067,7 +4069,7 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52">
         <v>0.01</v>
@@ -4088,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" t="s">
         <v>110</v>
       </c>
-      <c r="K52" t="s">
-        <v>111</v>
-      </c>
       <c r="L52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M52">
         <v>2.7923161552085789E-2</v>
@@ -4109,10 +4111,10 @@
         <v>6.7708081236241054E-3</v>
       </c>
       <c r="Q52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>0.01</v>
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" t="s">
         <v>110</v>
       </c>
-      <c r="K53" t="s">
-        <v>111</v>
-      </c>
       <c r="L53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M53">
         <v>5.5438047106662718E-3</v>
@@ -4162,10 +4164,10 @@
         <v>5.8677021848695743E-3</v>
       </c>
       <c r="Q53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D54">
         <v>0.01</v>
@@ -4194,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" t="s">
         <v>110</v>
       </c>
-      <c r="K54" t="s">
-        <v>111</v>
-      </c>
       <c r="L54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M54">
         <v>9.0384012312783568</v>
@@ -4215,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D55">
         <v>0.4</v>
@@ -4247,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" t="s">
         <v>110</v>
       </c>
-      <c r="K55" t="s">
-        <v>111</v>
-      </c>
       <c r="L55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M55">
         <v>0.14837012176685199</v>
@@ -4268,10 +4270,10 @@
         <v>3.8056374204689401E-2</v>
       </c>
       <c r="Q55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D56">
         <v>0.4</v>
@@ -4300,13 +4302,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56" t="s">
         <v>110</v>
       </c>
-      <c r="K56" t="s">
-        <v>111</v>
-      </c>
       <c r="L56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M56">
         <v>7.1935328649057675E-2</v>
@@ -4321,10 +4323,10 @@
         <v>1.9339712702166612E-2</v>
       </c>
       <c r="Q56" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57">
         <v>0.01</v>
@@ -4353,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
+        <v>109</v>
+      </c>
+      <c r="K57" t="s">
         <v>110</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>111</v>
-      </c>
-      <c r="L57" t="s">
-        <v>112</v>
       </c>
       <c r="M57">
         <v>4.3184180913635843E-2</v>
@@ -4374,10 +4376,10 @@
         <v>7.3125318126076224E-3</v>
       </c>
       <c r="Q57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58">
         <v>0.01</v>
@@ -4406,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
+        <v>109</v>
+      </c>
+      <c r="K58" t="s">
         <v>110</v>
       </c>
-      <c r="K58" t="s">
-        <v>111</v>
-      </c>
       <c r="L58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M58">
         <v>0.1058678479285175</v>
@@ -4427,10 +4429,10 @@
         <v>7.5594855134865999E-3</v>
       </c>
       <c r="Q58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59">
         <v>0.01</v>
@@ -4459,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59" t="s">
         <v>110</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>111</v>
-      </c>
-      <c r="L59" t="s">
-        <v>112</v>
       </c>
       <c r="M59">
         <v>0.1554301323684763</v>
@@ -4480,10 +4482,10 @@
         <v>5.6938462825439507E-3</v>
       </c>
       <c r="Q59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D60">
         <v>0.01</v>
@@ -4512,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
+        <v>109</v>
+      </c>
+      <c r="K60" t="s">
         <v>110</v>
       </c>
-      <c r="K60" t="s">
-        <v>111</v>
-      </c>
       <c r="L60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M60">
         <v>3.2188832660217333E-2</v>
@@ -4533,10 +4535,10 @@
         <v>7.4505612381881997E-3</v>
       </c>
       <c r="Q60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4544,7 +4546,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61">
         <v>0.01</v>
@@ -4565,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
+        <v>109</v>
+      </c>
+      <c r="K61" t="s">
         <v>110</v>
       </c>
-      <c r="K61" t="s">
-        <v>111</v>
-      </c>
       <c r="L61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M61">
         <v>3.1805388357231262E-2</v>
@@ -4586,10 +4588,10 @@
         <v>7.4506193650944724E-3</v>
       </c>
       <c r="Q61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4597,7 +4599,7 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62">
         <v>0.01</v>
@@ -4618,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
+        <v>109</v>
+      </c>
+      <c r="K62" t="s">
         <v>110</v>
       </c>
-      <c r="K62" t="s">
-        <v>111</v>
-      </c>
       <c r="L62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M62">
         <v>5.8633923749573718E-3</v>
@@ -4639,10 +4641,10 @@
         <v>6.0594382171664024E-3</v>
       </c>
       <c r="Q62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4650,7 +4652,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -4671,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M63">
         <v>0.9751744221228642</v>
@@ -4692,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>7.4999999999999997E-2</v>
@@ -4724,13 +4726,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M64">
         <v>0.51425260342006485</v>
@@ -4745,10 +4747,10 @@
         <v>0.1809486366212037</v>
       </c>
       <c r="Q64" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -4777,13 +4779,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M65">
         <v>0.88046436889923174</v>
@@ -4798,10 +4800,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4830,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M66">
         <v>8.3903918258558665</v>
@@ -4851,10 +4853,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4883,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M67">
         <v>4.9688250964440366</v>
@@ -4904,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="Q67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4936,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M68">
         <v>0.8912739610151903</v>
@@ -4957,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D69">
         <v>0.71</v>
@@ -4989,13 +4991,13 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M69">
         <v>1.1288645780181701</v>
@@ -5010,10 +5012,10 @@
         <v>1.152488279844583</v>
       </c>
       <c r="Q69" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5021,7 +5023,7 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D70">
         <v>0.27</v>
@@ -5042,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M70">
         <v>0.34193451040641343</v>
@@ -5063,10 +5065,10 @@
         <v>0.20299039429326951</v>
       </c>
       <c r="Q70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D71">
         <v>0.27</v>
@@ -5095,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M71">
         <v>0.15040621558207001</v>
@@ -5116,10 +5118,10 @@
         <v>0.19608940368046729</v>
       </c>
       <c r="Q71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -5148,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M72">
         <v>0.46677867065539103</v>
@@ -5169,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -5201,13 +5203,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M73">
         <v>0.55370345040526237</v>
@@ -5222,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -5254,13 +5256,13 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M74">
         <v>0.67973548454671817</v>
@@ -5275,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5286,7 +5288,7 @@
         <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -5307,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M75">
         <v>0.6592777432598953</v>
@@ -5328,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5339,7 +5341,7 @@
         <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D76">
         <v>0.15</v>
@@ -5360,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M76">
         <v>0.1752149262238894</v>
@@ -5381,10 +5383,10 @@
         <v>0.1227489825766806</v>
       </c>
       <c r="Q76" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77">
         <v>0.26127846043986142</v>
@@ -5413,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
+        <v>159</v>
+      </c>
+      <c r="K77" t="s">
         <v>160</v>
       </c>
-      <c r="K77" t="s">
-        <v>161</v>
-      </c>
       <c r="L77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M77">
         <v>0.97338508277714453</v>
@@ -5434,10 +5436,10 @@
         <v>2.0328907099021469</v>
       </c>
       <c r="Q77" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78">
         <v>0.26541621318629882</v>
@@ -5466,13 +5468,13 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
+        <v>159</v>
+      </c>
+      <c r="K78" t="s">
         <v>160</v>
       </c>
-      <c r="K78" t="s">
-        <v>161</v>
-      </c>
       <c r="L78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M78">
         <v>0.59001069052305288</v>
@@ -5487,10 +5489,10 @@
         <v>1.245064455781296</v>
       </c>
       <c r="Q78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D79">
         <v>0.21509165312251499</v>
@@ -5519,13 +5521,13 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
+        <v>159</v>
+      </c>
+      <c r="K79" t="s">
         <v>160</v>
       </c>
-      <c r="K79" t="s">
-        <v>161</v>
-      </c>
       <c r="L79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M79">
         <v>4.1626317054048441</v>
@@ -5540,10 +5542,10 @@
         <v>0.57193779446087067</v>
       </c>
       <c r="Q79" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5551,7 +5553,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80">
         <v>0.33363258190627798</v>
@@ -5572,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
+        <v>159</v>
+      </c>
+      <c r="K80" t="s">
         <v>160</v>
       </c>
-      <c r="K80" t="s">
-        <v>161</v>
-      </c>
       <c r="L80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M80">
         <v>1.2015633686472691</v>
@@ -5593,10 +5595,10 @@
         <v>0.35163029908218629</v>
       </c>
       <c r="Q80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D81">
         <v>0.33982260872497161</v>
@@ -5625,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
+        <v>159</v>
+      </c>
+      <c r="K81" t="s">
         <v>160</v>
       </c>
-      <c r="K81" t="s">
-        <v>161</v>
-      </c>
       <c r="L81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M81">
         <v>1.6053045225942699</v>
@@ -5646,10 +5648,10 @@
         <v>0.34913747570225978</v>
       </c>
       <c r="Q81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D82">
         <v>0.25372348779779141</v>
@@ -5678,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
+        <v>159</v>
+      </c>
+      <c r="K82" t="s">
         <v>160</v>
       </c>
-      <c r="K82" t="s">
-        <v>161</v>
-      </c>
       <c r="L82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M82">
         <v>0.97531452261661689</v>
@@ -5699,10 +5701,10 @@
         <v>0.45182650257921603</v>
       </c>
       <c r="Q82" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5710,7 +5712,7 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D83">
         <v>0.25657677437619392</v>
@@ -5731,13 +5733,13 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
+        <v>159</v>
+      </c>
+      <c r="K83" t="s">
         <v>160</v>
       </c>
-      <c r="K83" t="s">
-        <v>161</v>
-      </c>
       <c r="L83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M83">
         <v>1.1915382413885429</v>
@@ -5752,10 +5754,10 @@
         <v>0.5274099842547908</v>
       </c>
       <c r="Q83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D84">
         <v>0.2561492698801251</v>
@@ -5784,13 +5786,13 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
+        <v>159</v>
+      </c>
+      <c r="K84" t="s">
         <v>160</v>
       </c>
-      <c r="K84" t="s">
-        <v>161</v>
-      </c>
       <c r="L84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M84">
         <v>0.89052593527745716</v>
@@ -5805,10 +5807,10 @@
         <v>0.46550804153530811</v>
       </c>
       <c r="Q84" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5816,7 +5818,7 @@
         <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D85">
         <v>0.20736815689092841</v>
@@ -5837,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
+        <v>159</v>
+      </c>
+      <c r="K85" t="s">
         <v>160</v>
       </c>
-      <c r="K85" t="s">
-        <v>161</v>
-      </c>
       <c r="L85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M85">
         <v>0.4841519551048169</v>
@@ -5858,10 +5860,10 @@
         <v>0.32724566969080082</v>
       </c>
       <c r="Q85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D86">
         <v>0.22077591328672699</v>
@@ -5890,13 +5892,13 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
+        <v>159</v>
+      </c>
+      <c r="K86" t="s">
         <v>160</v>
       </c>
-      <c r="K86" t="s">
-        <v>161</v>
-      </c>
       <c r="L86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M86">
         <v>0.56413360444025362</v>
@@ -5911,10 +5913,10 @@
         <v>0.39884922088237551</v>
       </c>
       <c r="Q86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5922,7 +5924,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87">
         <v>0.20817160057638301</v>
@@ -5943,13 +5945,13 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
+        <v>159</v>
+      </c>
+      <c r="K87" t="s">
         <v>160</v>
       </c>
-      <c r="K87" t="s">
-        <v>161</v>
-      </c>
       <c r="L87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M87">
         <v>0.60473223532074549</v>
@@ -5964,10 +5966,10 @@
         <v>0.35000857129483859</v>
       </c>
       <c r="Q87" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D88">
         <v>0.2190710068646799</v>
@@ -5996,13 +5998,13 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
+        <v>159</v>
+      </c>
+      <c r="K88" t="s">
         <v>160</v>
       </c>
-      <c r="K88" t="s">
-        <v>161</v>
-      </c>
       <c r="L88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M88">
         <v>0.52581683620047959</v>
@@ -6017,10 +6019,10 @@
         <v>0.34140664984683428</v>
       </c>
       <c r="Q88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6028,7 +6030,7 @@
         <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D89">
         <v>0.20723935814428199</v>
@@ -6049,13 +6051,13 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
+        <v>159</v>
+      </c>
+      <c r="K89" t="s">
         <v>160</v>
       </c>
-      <c r="K89" t="s">
-        <v>161</v>
-      </c>
       <c r="L89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M89">
         <v>0.54094147856494068</v>
@@ -6070,10 +6072,10 @@
         <v>0.37201825960573559</v>
       </c>
       <c r="Q89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D90">
         <v>0.20346693391568041</v>
@@ -6102,13 +6104,13 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
+        <v>159</v>
+      </c>
+      <c r="K90" t="s">
         <v>160</v>
       </c>
-      <c r="K90" t="s">
-        <v>161</v>
-      </c>
       <c r="L90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M90">
         <v>0.44604023278304689</v>
@@ -6123,10 +6125,10 @@
         <v>0.29795856163559897</v>
       </c>
       <c r="Q90" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91">
         <v>0.29041801231088982</v>
@@ -6155,13 +6157,13 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
+        <v>159</v>
+      </c>
+      <c r="K91" t="s">
         <v>160</v>
       </c>
-      <c r="K91" t="s">
-        <v>161</v>
-      </c>
       <c r="L91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M91">
         <v>2.7779574620792742</v>
@@ -6176,10 +6178,10 @@
         <v>0.1048601334099034</v>
       </c>
       <c r="Q91" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D92">
         <v>0.38255428499991451</v>
@@ -6208,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
+        <v>159</v>
+      </c>
+      <c r="K92" t="s">
         <v>160</v>
       </c>
-      <c r="K92" t="s">
-        <v>161</v>
-      </c>
       <c r="L92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M92">
         <v>0.16409818127027059</v>
@@ -6229,10 +6231,10 @@
         <v>8.5737496022029999E-2</v>
       </c>
       <c r="Q92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6240,7 +6242,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93">
         <v>0.61843370619641069</v>
@@ -6261,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
+        <v>159</v>
+      </c>
+      <c r="K93" t="s">
         <v>160</v>
       </c>
-      <c r="K93" t="s">
-        <v>161</v>
-      </c>
       <c r="L93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M93">
         <v>1.336745430299348</v>
@@ -6282,10 +6284,10 @@
         <v>1.5299762824186329</v>
       </c>
       <c r="Q93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6293,7 +6295,7 @@
         <v>92</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D94">
         <v>0.26259459096303628</v>
@@ -6314,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
+        <v>159</v>
+      </c>
+      <c r="K94" t="s">
         <v>160</v>
       </c>
-      <c r="K94" t="s">
-        <v>161</v>
-      </c>
       <c r="L94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M94">
         <v>1.213581866892719</v>
@@ -6335,10 +6337,10 @@
         <v>3.055793589963244</v>
       </c>
       <c r="Q94" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D95">
         <v>0.4062603133553625</v>
@@ -6367,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
+        <v>159</v>
+      </c>
+      <c r="K95" t="s">
         <v>160</v>
       </c>
-      <c r="K95" t="s">
-        <v>161</v>
-      </c>
       <c r="L95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M95">
         <v>1.478630220095821</v>
@@ -6388,10 +6390,10 @@
         <v>0.43139446262943743</v>
       </c>
       <c r="Q95" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6399,7 +6401,7 @@
         <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D96">
         <v>0.1137021148028325</v>
@@ -6420,13 +6422,13 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
+        <v>193</v>
+      </c>
+      <c r="K96" t="s">
         <v>194</v>
       </c>
-      <c r="K96" t="s">
-        <v>195</v>
-      </c>
       <c r="L96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M96">
         <v>0.78680437571629636</v>
@@ -6441,10 +6443,10 @@
         <v>1.01962087377595</v>
       </c>
       <c r="Q96" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6452,7 +6454,7 @@
         <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D97">
         <v>0.14447865974291171</v>
@@ -6473,13 +6475,13 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
+        <v>193</v>
+      </c>
+      <c r="K97" t="s">
         <v>194</v>
       </c>
-      <c r="K97" t="s">
-        <v>195</v>
-      </c>
       <c r="L97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M97">
         <v>0.12910688300171061</v>
@@ -6494,10 +6496,10 @@
         <v>0</v>
       </c>
       <c r="Q97" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6505,7 +6507,7 @@
         <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>0.1225483362967822</v>
@@ -6526,13 +6528,13 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
+        <v>193</v>
+      </c>
+      <c r="K98" t="s">
         <v>194</v>
       </c>
-      <c r="K98" t="s">
-        <v>195</v>
-      </c>
       <c r="L98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M98">
         <v>1.182361806453992</v>
@@ -6547,10 +6549,10 @@
         <v>0.48383466484331988</v>
       </c>
       <c r="Q98" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>97</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D99">
         <v>0.1263529376826231</v>
@@ -6579,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
+        <v>193</v>
+      </c>
+      <c r="K99" t="s">
         <v>194</v>
       </c>
-      <c r="K99" t="s">
-        <v>195</v>
-      </c>
       <c r="L99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M99">
         <v>1.885980842781009</v>
@@ -6600,10 +6602,10 @@
         <v>0.59640694876293776</v>
       </c>
       <c r="Q99" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D100">
         <v>0.1196126025034101</v>
@@ -6632,13 +6634,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
+        <v>193</v>
+      </c>
+      <c r="K100" t="s">
         <v>194</v>
       </c>
-      <c r="K100" t="s">
-        <v>195</v>
-      </c>
       <c r="L100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M100">
         <v>0.56149366211988549</v>
@@ -6653,10 +6655,10 @@
         <v>0.49882579213398642</v>
       </c>
       <c r="Q100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D101">
         <v>0.24424000658960329</v>
@@ -6685,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
+        <v>193</v>
+      </c>
+      <c r="K101" t="s">
         <v>194</v>
       </c>
-      <c r="K101" t="s">
-        <v>195</v>
-      </c>
       <c r="L101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M101">
         <v>0.58672511599392263</v>
@@ -6706,10 +6708,10 @@
         <v>0.61810285826039113</v>
       </c>
       <c r="Q101" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D102">
         <v>0.13009266504039371</v>
@@ -6738,13 +6740,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
+        <v>193</v>
+      </c>
+      <c r="K102" t="s">
         <v>194</v>
       </c>
-      <c r="K102" t="s">
-        <v>195</v>
-      </c>
       <c r="L102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M102">
         <v>1.6925679697216911</v>
@@ -6759,10 +6761,10 @@
         <v>0.9932422164027308</v>
       </c>
       <c r="Q102" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6770,7 +6772,7 @@
         <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D103">
         <v>0.1262176528885077</v>
@@ -6791,13 +6793,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
+        <v>193</v>
+      </c>
+      <c r="K103" t="s">
         <v>194</v>
       </c>
-      <c r="K103" t="s">
-        <v>195</v>
-      </c>
       <c r="L103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M103">
         <v>0.65231917009307339</v>
@@ -6812,10 +6814,10 @@
         <v>0.64847995122552826</v>
       </c>
       <c r="Q103" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6823,7 +6825,7 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D104">
         <v>0.1144499826905726</v>
@@ -6844,13 +6846,13 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
+        <v>193</v>
+      </c>
+      <c r="K104" t="s">
         <v>194</v>
       </c>
-      <c r="K104" t="s">
-        <v>195</v>
-      </c>
       <c r="L104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M104">
         <v>1.9433501142277561</v>
@@ -6865,10 +6867,10 @@
         <v>0.48138651880534761</v>
       </c>
       <c r="Q104" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D105">
         <v>0.24165393676610281</v>
@@ -6897,13 +6899,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
+        <v>193</v>
+      </c>
+      <c r="K105" t="s">
         <v>194</v>
       </c>
-      <c r="K105" t="s">
-        <v>195</v>
-      </c>
       <c r="L105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M105">
         <v>1.2534247162854211</v>
@@ -6918,10 +6920,10 @@
         <v>1.2875441948768931</v>
       </c>
       <c r="Q105" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6929,7 +6931,7 @@
         <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D106">
         <v>0.12630676062180449</v>
@@ -6950,13 +6952,13 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
+        <v>193</v>
+      </c>
+      <c r="K106" t="s">
         <v>194</v>
       </c>
-      <c r="K106" t="s">
-        <v>195</v>
-      </c>
       <c r="L106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M106">
         <v>0.62714904757042045</v>
@@ -6971,10 +6973,10 @@
         <v>0</v>
       </c>
       <c r="Q106" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6982,7 +6984,7 @@
         <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D107">
         <v>0.23774112560874919</v>
@@ -7003,13 +7005,13 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
+        <v>193</v>
+      </c>
+      <c r="K107" t="s">
         <v>194</v>
       </c>
-      <c r="K107" t="s">
-        <v>195</v>
-      </c>
       <c r="L107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M107">
         <v>0.84867522899239045</v>
@@ -7024,10 +7026,10 @@
         <v>0.84414253768366576</v>
       </c>
       <c r="Q107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D108">
         <v>0.12532484844300551</v>
@@ -7056,13 +7058,13 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
+        <v>193</v>
+      </c>
+      <c r="K108" t="s">
         <v>194</v>
       </c>
-      <c r="K108" t="s">
-        <v>195</v>
-      </c>
       <c r="L108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M108">
         <v>4.8937646826739852E-2</v>
@@ -7077,10 +7079,10 @@
         <v>0</v>
       </c>
       <c r="Q108" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7088,7 +7090,7 @@
         <v>107</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D109">
         <v>0.13121994029910669</v>
@@ -7109,13 +7111,13 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
+        <v>193</v>
+      </c>
+      <c r="K109" t="s">
         <v>194</v>
       </c>
-      <c r="K109" t="s">
-        <v>195</v>
-      </c>
       <c r="L109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M109">
         <v>1.016779699785298</v>
@@ -7130,10 +7132,10 @@
         <v>0</v>
       </c>
       <c r="Q109" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D110">
         <v>0.11847260709030021</v>
@@ -7162,13 +7164,13 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
+        <v>193</v>
+      </c>
+      <c r="K110" t="s">
         <v>194</v>
       </c>
-      <c r="K110" t="s">
-        <v>195</v>
-      </c>
       <c r="L110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M110">
         <v>0.34521673478577508</v>
@@ -7183,10 +7185,10 @@
         <v>0.87336643998377994</v>
       </c>
       <c r="Q110" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D111">
         <v>0.1167421698034859</v>
@@ -7215,13 +7217,13 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
+        <v>216</v>
+      </c>
+      <c r="K111" t="s">
         <v>217</v>
       </c>
-      <c r="K111" t="s">
-        <v>218</v>
-      </c>
       <c r="L111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M111">
         <v>1.1140825951767901</v>
@@ -7236,10 +7238,10 @@
         <v>0.32889350256355743</v>
       </c>
       <c r="Q111" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D112">
         <v>0.28799068633160502</v>
@@ -7268,13 +7270,13 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
+        <v>216</v>
+      </c>
+      <c r="K112" t="s">
         <v>217</v>
       </c>
-      <c r="K112" t="s">
-        <v>218</v>
-      </c>
       <c r="L112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M112">
         <v>1.3390104353538119</v>
@@ -7289,10 +7291,10 @@
         <v>0.46015987644826323</v>
       </c>
       <c r="Q112" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7300,7 +7302,7 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D113">
         <v>0.61192223099208676</v>
@@ -7321,13 +7323,13 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
+        <v>216</v>
+      </c>
+      <c r="K113" t="s">
         <v>217</v>
       </c>
-      <c r="K113" t="s">
-        <v>218</v>
-      </c>
       <c r="L113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M113">
         <v>0.18685735748626639</v>
@@ -7342,10 +7344,10 @@
         <v>0.52268674716886709</v>
       </c>
       <c r="Q113" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7353,7 +7355,7 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D114">
         <v>0.13561918661274669</v>
@@ -7374,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
+        <v>216</v>
+      </c>
+      <c r="K114" t="s">
         <v>217</v>
       </c>
-      <c r="K114" t="s">
-        <v>218</v>
-      </c>
       <c r="L114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M114">
         <v>1.153544497654871</v>
@@ -7395,10 +7397,10 @@
         <v>0.31337952971432398</v>
       </c>
       <c r="Q114" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D115">
         <v>0.28901783889600091</v>
@@ -7427,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
+        <v>216</v>
+      </c>
+      <c r="K115" t="s">
         <v>217</v>
       </c>
-      <c r="K115" t="s">
-        <v>218</v>
-      </c>
       <c r="L115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M115">
         <v>1.364327883467148</v>
@@ -7448,10 +7450,10 @@
         <v>0.50407900807805994</v>
       </c>
       <c r="Q115" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7459,7 +7461,7 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D116">
         <v>0.1072233313191565</v>
@@ -7480,13 +7482,13 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
+        <v>216</v>
+      </c>
+      <c r="K116" t="s">
         <v>217</v>
       </c>
-      <c r="K116" t="s">
-        <v>218</v>
-      </c>
       <c r="L116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M116">
         <v>0.85328601866782405</v>
@@ -7501,10 +7503,10 @@
         <v>0.32483739627021319</v>
       </c>
       <c r="Q116" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D117">
         <v>0.5</v>
@@ -7533,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L117" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M117">
         <v>0.25519374741627909</v>
@@ -7554,10 +7556,10 @@
         <v>0.1402968536960881</v>
       </c>
       <c r="Q117" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7565,7 +7567,7 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D118">
         <v>0.49999999943332152</v>
@@ -7586,13 +7588,13 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M118">
         <v>0.72468774981963102</v>
@@ -7607,10 +7609,10 @@
         <v>0.1035873619892634</v>
       </c>
       <c r="Q118" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7618,7 +7620,7 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D119">
         <v>0.19766453891466279</v>
@@ -7639,13 +7641,13 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M119">
         <v>0.43510534366473652</v>
@@ -7660,10 +7662,10 @@
         <v>0.98083571638165257</v>
       </c>
       <c r="Q119" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D120">
         <v>0.21840409107795941</v>
@@ -7692,13 +7694,13 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M120">
         <v>0.39655965366014889</v>
@@ -7713,10 +7715,10 @@
         <v>0.20099369402148981</v>
       </c>
       <c r="Q120" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D121">
         <v>0.4434934132816557</v>
@@ -7745,13 +7747,13 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L121" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M121">
         <v>0.2233192376488394</v>
@@ -7766,10 +7768,10 @@
         <v>0.15062450925274479</v>
       </c>
       <c r="Q121" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7777,7 +7779,7 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D122">
         <v>0.21334224243770891</v>
@@ -7798,13 +7800,13 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M122">
         <v>0.33344313369357209</v>
@@ -7819,10 +7821,10 @@
         <v>0.1629127579034351</v>
       </c>
       <c r="Q122" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7830,7 +7832,7 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D123">
         <v>0.49999999982537757</v>
@@ -7851,13 +7853,13 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M123">
         <v>0.48025658393283521</v>
@@ -7872,10 +7874,10 @@
         <v>5.9309314806656473E-2</v>
       </c>
       <c r="Q123" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7883,7 +7885,7 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D124">
         <v>2.489649743562521E-2</v>
@@ -7904,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K124" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M124">
         <v>0.39253728570636831</v>
@@ -7925,10 +7927,10 @@
         <v>0.29810003896056059</v>
       </c>
       <c r="Q124" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7936,7 +7938,7 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125">
         <v>3.3949557659051638E-2</v>
@@ -7957,13 +7959,13 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M125">
         <v>1.3794271260787341</v>
@@ -7978,10 +7980,10 @@
         <v>0.84820370878365092</v>
       </c>
       <c r="Q125" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -8010,13 +8012,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M126">
         <v>2.268449737146256</v>
@@ -8031,10 +8033,10 @@
         <v>0.4960002713447722</v>
       </c>
       <c r="Q126" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127">
         <v>5.14492104036691E-2</v>
@@ -8063,13 +8065,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M127">
         <v>0.87961371426132817</v>
@@ -8084,10 +8086,10 @@
         <v>0.8482800960373289</v>
       </c>
       <c r="Q127" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -8095,7 +8097,7 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D128">
         <v>0.28154042394208478</v>
@@ -8116,13 +8118,13 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M128">
         <v>2.5045436284036282</v>
@@ -8137,10 +8139,10 @@
         <v>1.5174583297381721</v>
       </c>
       <c r="Q128" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -8148,7 +8150,7 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129">
         <v>0.28068717003339327</v>
@@ -8169,13 +8171,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M129">
         <v>2.3056878106093639</v>
@@ -8190,10 +8192,10 @@
         <v>1.3634703621545019</v>
       </c>
       <c r="Q129" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130">
         <v>0.28101794508829342</v>
@@ -8222,13 +8224,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M130">
         <v>2.4726219034661008</v>
@@ -8243,10 +8245,10 @@
         <v>8.541658306773332</v>
       </c>
       <c r="Q130" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8254,7 +8256,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D131">
         <v>0.28033989818663441</v>
@@ -8275,13 +8277,13 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M131">
         <v>2.4379921743346689</v>
@@ -8296,10 +8298,10 @@
         <v>1.413852954402276</v>
       </c>
       <c r="Q131" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -8307,7 +8309,7 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D132">
         <v>0.28199074087408033</v>
@@ -8328,13 +8330,13 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K132" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M132">
         <v>2.5141076042104999</v>
@@ -8349,10 +8351,10 @@
         <v>1.4021983906187021</v>
       </c>
       <c r="Q132" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -8360,7 +8362,7 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -8381,13 +8383,13 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M133">
         <v>2.233791931365368</v>
@@ -8402,10 +8404,10 @@
         <v>0.45214008929116373</v>
       </c>
       <c r="Q133" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D134">
         <v>0.25700701641110008</v>
@@ -8434,13 +8436,13 @@
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K134" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M134">
         <v>0.17539382413168769</v>
@@ -8455,10 +8457,10 @@
         <v>0.44276055083802801</v>
       </c>
       <c r="Q134" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -8487,13 +8489,13 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K135" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M135">
         <v>0.79786630711532402</v>
@@ -8508,10 +8510,10 @@
         <v>0.87450866885114087</v>
       </c>
       <c r="Q135" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8519,7 +8521,7 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -8540,13 +8542,13 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K136" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M136">
         <v>0.81833813887285189</v>
@@ -8561,10 +8563,10 @@
         <v>0.90339301773920322</v>
       </c>
       <c r="Q136" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8572,7 +8574,7 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -8593,13 +8595,13 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K137" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M137">
         <v>1.9626958850231</v>
@@ -8614,10 +8616,10 @@
         <v>0.60302756629879839</v>
       </c>
       <c r="Q137" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -8646,13 +8648,13 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K138" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M138">
         <v>3.6415840110202549</v>
@@ -8667,10 +8669,10 @@
         <v>0.10703211601617579</v>
       </c>
       <c r="Q138" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8678,7 +8680,7 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L139" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M139">
         <v>0.16491257510049251</v>
@@ -8720,10 +8722,10 @@
         <v>0.53646056948314935</v>
       </c>
       <c r="Q139" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8731,7 +8733,7 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -8752,13 +8754,13 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K140" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M140">
         <v>8.1310789488816135E-2</v>
@@ -8773,10 +8775,10 @@
         <v>7.8088800444634177E-2</v>
       </c>
       <c r="Q140" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8784,7 +8786,7 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D141">
         <v>0.2</v>
@@ -8805,13 +8807,13 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K141" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M141">
         <v>0.88343976493969523</v>
@@ -8826,10 +8828,10 @@
         <v>8.4709163355103451E-2</v>
       </c>
       <c r="Q141" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8837,7 +8839,7 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D142">
         <v>0.2</v>
@@ -8858,13 +8860,13 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M142">
         <v>0.2498804048664526</v>
@@ -8879,10 +8881,10 @@
         <v>9.2485709051077516E-2</v>
       </c>
       <c r="Q142" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8890,7 +8892,7 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -8911,13 +8913,13 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L143" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M143">
         <v>0.1874943173887246</v>
@@ -8932,10 +8934,10 @@
         <v>1.229800161401199E-2</v>
       </c>
       <c r="Q143" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -8964,13 +8966,13 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K144" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M144">
         <v>0.28691571219973722</v>
@@ -8985,10 +8987,10 @@
         <v>5.0117939018231319E-2</v>
       </c>
       <c r="Q144" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8996,7 +8998,7 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -9017,13 +9019,13 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K145" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M145">
         <v>1.121003799566042</v>
@@ -9038,10 +9040,10 @@
         <v>0.14241023021417129</v>
       </c>
       <c r="Q145" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9049,7 +9051,7 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -9070,13 +9072,13 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M146">
         <v>1.047393225642608</v>
@@ -9091,10 +9093,10 @@
         <v>6.7011954862389214E-2</v>
       </c>
       <c r="Q146" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147">
         <v>0.2</v>
@@ -9123,13 +9125,13 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K147" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M147">
         <v>1.7836561321074289</v>
@@ -9144,10 +9146,10 @@
         <v>0.48268282920438638</v>
       </c>
       <c r="Q147" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -9155,7 +9157,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D148">
         <v>0.32</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K148" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L148" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M148">
         <v>0.82519443620119337</v>
@@ -9197,10 +9199,10 @@
         <v>0.30938846118998281</v>
       </c>
       <c r="Q148" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -9208,7 +9210,7 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D149">
         <v>0.2</v>
@@ -9229,13 +9231,13 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K149" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L149" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M149">
         <v>1.2011766143131859</v>
@@ -9250,10 +9252,10 @@
         <v>0.27419712225227499</v>
       </c>
       <c r="Q149" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -9261,7 +9263,7 @@
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D150">
         <v>0.3</v>
@@ -9282,13 +9284,13 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M150">
         <v>0.45543978872573182</v>
@@ -9303,10 +9305,10 @@
         <v>0.22224869763759111</v>
       </c>
       <c r="Q150" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D151">
         <v>0.2</v>
@@ -9335,13 +9337,13 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M151">
         <v>1.9259161718392459</v>
@@ -9356,10 +9358,10 @@
         <v>0.33025352076915337</v>
       </c>
       <c r="Q151" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -9367,7 +9369,7 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D152">
         <v>0.32</v>
@@ -9388,13 +9390,13 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K152" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M152">
         <v>2.4863651958472142</v>
@@ -9409,10 +9411,10 @@
         <v>0.32994768935182078</v>
       </c>
       <c r="Q152" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -9441,13 +9443,13 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K153" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M153">
         <v>0.2997614913385695</v>
@@ -9462,10 +9464,10 @@
         <v>0.25935299952001201</v>
       </c>
       <c r="Q153" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>1</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -9494,13 +9496,13 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K154" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M154">
         <v>0.23532210369136319</v>
@@ -9515,10 +9517,10 @@
         <v>0.3982796819447757</v>
       </c>
       <c r="Q154" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -9526,7 +9528,7 @@
         <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -9547,13 +9549,13 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K155" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M155">
         <v>0.18440350687649179</v>
@@ -9568,10 +9570,10 @@
         <v>0.38642391833214612</v>
       </c>
       <c r="Q155" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>3</v>
       </c>
@@ -9579,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -9600,13 +9602,13 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K156" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M156">
         <v>0.56658127221446852</v>
@@ -9621,10 +9623,10 @@
         <v>1.0055635102937659</v>
       </c>
       <c r="Q156" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>4</v>
       </c>
@@ -9632,7 +9634,7 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D157">
         <v>2.2724068494433609E-2</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K157" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M157">
         <v>2.7747225549897911</v>
@@ -9674,10 +9676,10 @@
         <v>0</v>
       </c>
       <c r="Q157" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>5</v>
       </c>
@@ -9685,7 +9687,7 @@
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -9706,13 +9708,13 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M158">
         <v>0.39752791739590609</v>
@@ -9727,10 +9729,10 @@
         <v>0.49873123115524759</v>
       </c>
       <c r="Q158" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>6</v>
       </c>
@@ -9738,7 +9740,7 @@
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -9759,13 +9761,13 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M159">
         <v>0.33971217523238623</v>
@@ -9780,10 +9782,10 @@
         <v>0.32234960145859848</v>
       </c>
       <c r="Q159" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>7</v>
       </c>
@@ -9791,7 +9793,7 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -9812,13 +9814,13 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K160" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M160">
         <v>0.22257847949914561</v>
@@ -9833,10 +9835,10 @@
         <v>0</v>
       </c>
       <c r="Q160" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>8</v>
       </c>
@@ -9844,7 +9846,7 @@
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D161">
         <v>0.16613626804970821</v>
@@ -9865,13 +9867,13 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K161" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M161">
         <v>0.2357095986500985</v>
@@ -9886,10 +9888,10 @@
         <v>0.34109216556709149</v>
       </c>
       <c r="Q161" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>9</v>
       </c>
@@ -9897,7 +9899,7 @@
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -9918,13 +9920,13 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K162" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M162">
         <v>0.205725340090434</v>
@@ -9939,10 +9941,10 @@
         <v>0.39824444230349892</v>
       </c>
       <c r="Q162" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>10</v>
       </c>
@@ -9950,7 +9952,7 @@
         <v>10</v>
       </c>
       <c r="C163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D163">
         <v>0.5324724615854759</v>
@@ -9971,13 +9973,13 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K163" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M163">
         <v>0.36722450095469128</v>
@@ -9992,10 +9994,10 @@
         <v>0.63233825065254134</v>
       </c>
       <c r="Q163" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>11</v>
       </c>
@@ -10003,7 +10005,7 @@
         <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -10024,13 +10026,13 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K164" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M164">
         <v>0.19947019425309881</v>
@@ -10045,10 +10047,10 @@
         <v>0.36452934272687021</v>
       </c>
       <c r="Q164" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>12</v>
       </c>
@@ -10056,7 +10058,7 @@
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -10077,13 +10079,13 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K165" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M165">
         <v>0.52543212096840797</v>
@@ -10098,10 +10100,10 @@
         <v>0.33416872500205957</v>
       </c>
       <c r="Q165" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D166">
         <v>0.30418098876119981</v>
@@ -10130,13 +10132,13 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M166">
         <v>0.16630684864721121</v>
@@ -10151,18 +10153,18 @@
         <v>0.29278149433068612</v>
       </c>
       <c r="Q166" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A167" s="1">
-        <v>1</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167" t="s">
-        <v>287</v>
       </c>
       <c r="D167">
         <v>0.5898034963752824</v>
@@ -10183,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L167" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M167">
         <v>0.47087455775114689</v>
@@ -10204,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="Q167" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>2</v>
       </c>
@@ -10215,7 +10217,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D168">
         <v>0.1710129545861461</v>
@@ -10236,13 +10238,13 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M168">
         <v>0.85229376360413744</v>
@@ -10257,10 +10259,10 @@
         <v>0.42085580999822519</v>
       </c>
       <c r="Q168" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>3</v>
       </c>
@@ -10268,7 +10270,7 @@
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D169">
         <v>0.29791809698299843</v>
@@ -10289,13 +10291,13 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K169" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M169">
         <v>0.18594559714006781</v>
@@ -10310,10 +10312,10 @@
         <v>0.28616483678798998</v>
       </c>
       <c r="Q169" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>4</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170">
         <v>0.1993969173477573</v>
@@ -10342,13 +10344,13 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K170" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M170">
         <v>0.69736308999332286</v>
@@ -10363,10 +10365,10 @@
         <v>0.28426893709970119</v>
       </c>
       <c r="Q170" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>5</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D171">
         <v>0.16939376452354191</v>
@@ -10395,13 +10397,13 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K171" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M171">
         <v>0.8227152401598834</v>
@@ -10416,10 +10418,10 @@
         <v>0.24174598303207079</v>
       </c>
       <c r="Q171" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>6</v>
       </c>
@@ -10427,7 +10429,7 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D172">
         <v>0.29848551397262768</v>
@@ -10448,13 +10450,13 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K172" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M172">
         <v>0.10387676261696011</v>
@@ -10469,10 +10471,10 @@
         <v>0</v>
       </c>
       <c r="Q172" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>7</v>
       </c>
@@ -10480,7 +10482,7 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D173">
         <v>0.30352659129939119</v>
@@ -10501,13 +10503,13 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K173" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L173" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M173">
         <v>0.19451588038545381</v>
@@ -10522,10 +10524,10 @@
         <v>0.29182769259413488</v>
       </c>
       <c r="Q173" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>8</v>
       </c>
@@ -10533,7 +10535,7 @@
         <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D174">
         <v>0.30420961214091441</v>
@@ -10554,13 +10556,13 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K174" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M174">
         <v>1.3180530564381949</v>
@@ -10575,10 +10577,10 @@
         <v>0.52617886405611736</v>
       </c>
       <c r="Q174" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>9</v>
       </c>
@@ -10586,7 +10588,7 @@
         <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D175">
         <v>0.2240751321631701</v>
@@ -10607,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K175" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L175" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M175">
         <v>0.67167154447805433</v>
@@ -10628,10 +10630,10 @@
         <v>0.28271488724204358</v>
       </c>
       <c r="Q175" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>10</v>
       </c>
@@ -10639,7 +10641,7 @@
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D176">
         <v>0.1132473650514683</v>
@@ -10660,13 +10662,13 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K176" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M176">
         <v>0.2103839473545375</v>
@@ -10681,10 +10683,10 @@
         <v>9.7964927985439862E-2</v>
       </c>
       <c r="Q176" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>11</v>
       </c>
@@ -10692,7 +10694,7 @@
         <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D177">
         <v>0.58214612073126015</v>
@@ -10713,13 +10715,13 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K177" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M177">
         <v>0.52100452831416999</v>
@@ -10734,10 +10736,10 @@
         <v>0.7703177426620097</v>
       </c>
       <c r="Q177" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>12</v>
       </c>
@@ -10745,7 +10747,7 @@
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D178">
         <v>0.29775274927707213</v>
@@ -10766,13 +10768,13 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K178" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M178">
         <v>0.27102624835497108</v>
@@ -10787,10 +10789,10 @@
         <v>0.31929149505410698</v>
       </c>
       <c r="Q178" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>13</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D179">
         <v>0.2889373419380592</v>
@@ -10819,13 +10821,13 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M179">
         <v>0.72828758623123313</v>
@@ -10840,10 +10842,10 @@
         <v>0.25866203416089489</v>
       </c>
       <c r="Q179" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>14</v>
       </c>
@@ -10851,7 +10853,7 @@
         <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D180">
         <v>0.16429579850603801</v>
@@ -10872,13 +10874,13 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K180" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M180">
         <v>0.87838075538811411</v>
@@ -10893,10 +10895,10 @@
         <v>0.105158026502552</v>
       </c>
       <c r="Q180" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>15</v>
       </c>
@@ -10904,7 +10906,7 @@
         <v>15</v>
       </c>
       <c r="C181" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D181">
         <v>0.29548119157903058</v>
@@ -10925,13 +10927,13 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K181" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L181" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M181">
         <v>0.53806986683453484</v>
@@ -10946,10 +10948,10 @@
         <v>0.29360836462096879</v>
       </c>
       <c r="Q181" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -10957,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -10978,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K182" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M182">
         <v>1.1604548212938649E-3</v>
       </c>
       <c r="Q182" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D183">
         <v>0.5</v>
@@ -11022,22 +11024,22 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K183" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M183">
         <v>0.54072400773841567</v>
       </c>
       <c r="Q183" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -11045,7 +11047,7 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -11066,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K184" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M184">
         <v>1.00818285693965E-2</v>
       </c>
       <c r="Q184" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>3</v>
       </c>
@@ -11089,7 +11091,7 @@
         <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D185">
         <v>0.5</v>
@@ -11110,22 +11112,22 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K185" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M185">
         <v>0.55698737026565415</v>
       </c>
       <c r="Q185" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>4</v>
       </c>
@@ -11133,7 +11135,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D186">
         <v>0.25</v>
@@ -11154,22 +11156,22 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K186" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M186">
         <v>0.20875208025856121</v>
       </c>
       <c r="Q186" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>5</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -11198,22 +11200,22 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K187" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M187">
         <v>3.49840256698588E-3</v>
       </c>
       <c r="Q187" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>6</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D188">
         <v>0.5</v>
@@ -11242,22 +11244,22 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K188" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L188" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M188">
         <v>0.73696567510388022</v>
       </c>
       <c r="Q188" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>7</v>
       </c>
@@ -11265,7 +11267,7 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D189">
         <v>0.5</v>
@@ -11286,19 +11288,19 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K189" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M189">
         <v>0.20349046478957361</v>
       </c>
       <c r="Q189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
